--- a/추가피처데이터/투자자별매매동향(수급)/013890.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/013890.xlsx
@@ -1664,43 +1664,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1932,58 +1932,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>401</v>
+        <v>12137</v>
       </c>
       <c r="C6" s="7">
-        <v>412</v>
+        <v>12466</v>
       </c>
       <c r="D6" s="9">
-        <v>-11</v>
+        <v>-329</v>
       </c>
       <c r="E6" s="11">
-        <v>539</v>
+        <v>16260</v>
       </c>
       <c r="F6" s="13">
-        <v>512</v>
+        <v>15530</v>
       </c>
       <c r="G6" s="15">
-        <v>27</v>
+        <v>730</v>
       </c>
       <c r="H6" s="17">
-        <v>217</v>
+        <v>6609</v>
       </c>
       <c r="I6" s="19">
-        <v>221</v>
+        <v>6655</v>
       </c>
       <c r="J6" s="21">
-        <v>-4</v>
+        <v>-46</v>
       </c>
       <c r="K6" s="23">
-        <v>121</v>
+        <v>3691</v>
       </c>
       <c r="L6" s="25">
-        <v>105</v>
+        <v>3180</v>
       </c>
       <c r="M6" s="27">
-        <v>16</v>
+        <v>511</v>
       </c>
       <c r="N6" s="29">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O6" s="31">
-        <v>19</v>
+        <v>551</v>
       </c>
       <c r="P6" s="33">
-        <v>-18</v>
+        <v>-531</v>
       </c>
       <c r="Q6" s="35">
-        <v>23</v>
+        <v>715</v>
       </c>
       <c r="R6" s="37">
-        <v>37</v>
+        <v>1114</v>
       </c>
       <c r="S6" s="39">
-        <v>-13</v>
+        <v>-399</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <v>9</v>
+        <v>286</v>
       </c>
       <c r="AA6" s="55">
-        <v>40</v>
+        <v>1227</v>
       </c>
       <c r="AB6" s="57">
-        <v>-30</v>
+        <v>-941</v>
       </c>
       <c r="AC6" s="59">
-        <v>62</v>
+        <v>1897</v>
       </c>
       <c r="AD6" s="61">
-        <v>20</v>
+        <v>583</v>
       </c>
       <c r="AE6" s="63">
-        <v>42</v>
+        <v>1314</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="AJ6" s="73">
-        <v>28</v>
+        <v>840</v>
       </c>
       <c r="AK6" s="75">
-        <v>-12</v>
+        <v>-354</v>
       </c>
       <c r="AL6" s="77">
-        <v>1172</v>
+        <v>35492</v>
       </c>
     </row>
     <row r="7">
@@ -2048,58 +2048,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>295</v>
+        <v>8558</v>
       </c>
       <c r="C7" s="7">
-        <v>336</v>
+        <v>9707</v>
       </c>
       <c r="D7" s="9">
-        <v>-40</v>
+        <v>-1149</v>
       </c>
       <c r="E7" s="11">
-        <v>549</v>
+        <v>15856</v>
       </c>
       <c r="F7" s="13">
-        <v>533</v>
+        <v>15483</v>
       </c>
       <c r="G7" s="15">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="H7" s="17">
-        <v>184</v>
+        <v>5414</v>
       </c>
       <c r="I7" s="19">
-        <v>164</v>
+        <v>4757</v>
       </c>
       <c r="J7" s="21">
-        <v>20</v>
+        <v>657</v>
       </c>
       <c r="K7" s="23">
-        <v>128</v>
+        <v>3782</v>
       </c>
       <c r="L7" s="25">
-        <v>101</v>
+        <v>2900</v>
       </c>
       <c r="M7" s="27">
-        <v>28</v>
+        <v>881</v>
       </c>
       <c r="N7" s="29">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="O7" s="31">
-        <v>17</v>
+        <v>510</v>
       </c>
       <c r="P7" s="33">
-        <v>-14</v>
+        <v>-423</v>
       </c>
       <c r="Q7" s="35">
-        <v>14</v>
+        <v>404</v>
       </c>
       <c r="R7" s="37">
-        <v>16</v>
+        <v>456</v>
       </c>
       <c r="S7" s="39">
-        <v>-2</v>
+        <v>-53</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2120,22 +2120,22 @@
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="AA7" s="55">
-        <v>17</v>
+        <v>511</v>
       </c>
       <c r="AB7" s="57">
-        <v>-6</v>
+        <v>-176</v>
       </c>
       <c r="AC7" s="59">
-        <v>27</v>
+        <v>807</v>
       </c>
       <c r="AD7" s="61">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="AE7" s="63">
-        <v>15</v>
+        <v>428</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2147,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="AJ7" s="73">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="AK7" s="75">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="AL7" s="77">
-        <v>1037</v>
+        <v>30089</v>
       </c>
     </row>
     <row r="8">
@@ -2164,58 +2164,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>320</v>
+        <v>9413</v>
       </c>
       <c r="C8" s="7">
-        <v>486</v>
+        <v>14385</v>
       </c>
       <c r="D8" s="9">
-        <v>-166</v>
+        <v>-4972</v>
       </c>
       <c r="E8" s="11">
-        <v>677</v>
+        <v>19843</v>
       </c>
       <c r="F8" s="13">
-        <v>519</v>
+        <v>15221</v>
       </c>
       <c r="G8" s="15">
-        <v>158</v>
+        <v>4622</v>
       </c>
       <c r="H8" s="17">
-        <v>213</v>
+        <v>6319</v>
       </c>
       <c r="I8" s="19">
-        <v>211</v>
+        <v>6140</v>
       </c>
       <c r="J8" s="21">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="K8" s="23">
-        <v>118</v>
+        <v>3465</v>
       </c>
       <c r="L8" s="25">
-        <v>130</v>
+        <v>3793</v>
       </c>
       <c r="M8" s="27">
-        <v>-11</v>
+        <v>-328</v>
       </c>
       <c r="N8" s="29">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="O8" s="31">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="P8" s="33">
-        <v>-9</v>
+        <v>-230</v>
       </c>
       <c r="Q8" s="35">
-        <v>29</v>
+        <v>864</v>
       </c>
       <c r="R8" s="37">
-        <v>24</v>
+        <v>678</v>
       </c>
       <c r="S8" s="39">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2227,31 +2227,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X8" s="49">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="51">
-        <v>-1</v>
+        <v>-31</v>
       </c>
       <c r="Z8" s="53">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="AA8" s="55">
-        <v>22</v>
+        <v>648</v>
       </c>
       <c r="AB8" s="57">
-        <v>-4</v>
+        <v>-112</v>
       </c>
       <c r="AC8" s="59">
-        <v>42</v>
+        <v>1277</v>
       </c>
       <c r="AD8" s="61">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="AE8" s="63">
-        <v>23</v>
+        <v>695</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="AJ8" s="73">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AK8" s="75">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="AL8" s="77">
-        <v>1217</v>
+        <v>35773</v>
       </c>
     </row>
     <row r="9">
@@ -2280,94 +2280,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>551</v>
+        <v>18494</v>
       </c>
       <c r="C9" s="7">
-        <v>555</v>
+        <v>18614</v>
       </c>
       <c r="D9" s="9">
-        <v>-4</v>
+        <v>-120</v>
       </c>
       <c r="E9" s="11">
-        <v>1045</v>
+        <v>35372</v>
       </c>
       <c r="F9" s="13">
-        <v>817</v>
+        <v>27438</v>
       </c>
       <c r="G9" s="15">
-        <v>228</v>
+        <v>7934</v>
       </c>
       <c r="H9" s="17">
-        <v>263</v>
+        <v>9006</v>
       </c>
       <c r="I9" s="19">
-        <v>489</v>
+        <v>16895</v>
       </c>
       <c r="J9" s="21">
-        <v>-226</v>
+        <v>-7890</v>
       </c>
       <c r="K9" s="23">
-        <v>131</v>
+        <v>4432</v>
       </c>
       <c r="L9" s="25">
-        <v>182</v>
+        <v>6139</v>
       </c>
       <c r="M9" s="27">
-        <v>-50</v>
+        <v>-1707</v>
       </c>
       <c r="N9" s="29">
-        <v>35</v>
+        <v>1305</v>
       </c>
       <c r="O9" s="31">
-        <v>46</v>
+        <v>1570</v>
       </c>
       <c r="P9" s="33">
-        <v>-11</v>
+        <v>-265</v>
       </c>
       <c r="Q9" s="35">
-        <v>49</v>
+        <v>1623</v>
       </c>
       <c r="R9" s="37">
-        <v>74</v>
+        <v>2550</v>
       </c>
       <c r="S9" s="39">
-        <v>-26</v>
+        <v>-926</v>
       </c>
       <c r="T9" s="41">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U9" s="43">
         <v>0</v>
       </c>
       <c r="V9" s="45">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W9" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X9" s="49">
         <v>0</v>
       </c>
       <c r="Y9" s="51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="53">
-        <v>33</v>
+        <v>1142</v>
       </c>
       <c r="AA9" s="55">
-        <v>57</v>
+        <v>1919</v>
       </c>
       <c r="AB9" s="57">
-        <v>-23</v>
+        <v>-776</v>
       </c>
       <c r="AC9" s="59">
-        <v>14</v>
+        <v>478</v>
       </c>
       <c r="AD9" s="61">
-        <v>130</v>
+        <v>4717</v>
       </c>
       <c r="AE9" s="63">
-        <v>-116</v>
+        <v>-4239</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2379,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>13</v>
+        <v>468</v>
       </c>
       <c r="AJ9" s="73">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="AK9" s="75">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="AL9" s="77">
-        <v>1872</v>
+        <v>63340</v>
       </c>
     </row>
     <row r="10">
@@ -2396,58 +2396,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>321</v>
+        <v>12107</v>
       </c>
       <c r="C10" s="7">
-        <v>469</v>
+        <v>17736</v>
       </c>
       <c r="D10" s="9">
-        <v>-148</v>
+        <v>-5629</v>
       </c>
       <c r="E10" s="11">
-        <v>634</v>
+        <v>23844</v>
       </c>
       <c r="F10" s="13">
-        <v>501</v>
+        <v>19135</v>
       </c>
       <c r="G10" s="15">
-        <v>133</v>
+        <v>4709</v>
       </c>
       <c r="H10" s="17">
-        <v>415</v>
+        <v>15868</v>
       </c>
       <c r="I10" s="19">
-        <v>365</v>
+        <v>13659</v>
       </c>
       <c r="J10" s="21">
-        <v>51</v>
+        <v>2209</v>
       </c>
       <c r="K10" s="23">
-        <v>151</v>
+        <v>5698</v>
       </c>
       <c r="L10" s="25">
-        <v>216</v>
+        <v>7994</v>
       </c>
       <c r="M10" s="27">
-        <v>-65</v>
+        <v>-2296</v>
       </c>
       <c r="N10" s="29">
-        <v>63</v>
+        <v>2468</v>
       </c>
       <c r="O10" s="31">
-        <v>30</v>
+        <v>1147</v>
       </c>
       <c r="P10" s="33">
-        <v>33</v>
+        <v>1321</v>
       </c>
       <c r="Q10" s="35">
-        <v>59</v>
+        <v>2291</v>
       </c>
       <c r="R10" s="37">
-        <v>37</v>
+        <v>1407</v>
       </c>
       <c r="S10" s="39">
-        <v>23</v>
+        <v>884</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2459,31 +2459,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="47">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="53">
-        <v>123</v>
+        <v>4681</v>
       </c>
       <c r="AA10" s="55">
-        <v>61</v>
+        <v>2330</v>
       </c>
       <c r="AB10" s="57">
-        <v>62</v>
+        <v>2351</v>
       </c>
       <c r="AC10" s="59">
-        <v>19</v>
+        <v>711</v>
       </c>
       <c r="AD10" s="61">
-        <v>21</v>
+        <v>773</v>
       </c>
       <c r="AE10" s="63">
-        <v>-2</v>
+        <v>-62</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="AJ10" s="73">
-        <v>42</v>
+        <v>1512</v>
       </c>
       <c r="AK10" s="75">
-        <v>-36</v>
+        <v>-1288</v>
       </c>
       <c r="AL10" s="77">
-        <v>1376</v>
+        <v>52042</v>
       </c>
     </row>
     <row r="11">
@@ -2512,58 +2512,58 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>344</v>
+        <v>12396</v>
       </c>
       <c r="C11" s="7">
-        <v>527</v>
+        <v>18884</v>
       </c>
       <c r="D11" s="9">
-        <v>-183</v>
+        <v>-6488</v>
       </c>
       <c r="E11" s="11">
-        <v>579</v>
+        <v>20638</v>
       </c>
       <c r="F11" s="13">
-        <v>678</v>
+        <v>24409</v>
       </c>
       <c r="G11" s="15">
-        <v>-99</v>
+        <v>-3771</v>
       </c>
       <c r="H11" s="17">
-        <v>467</v>
+        <v>16740</v>
       </c>
       <c r="I11" s="19">
-        <v>217</v>
+        <v>7662</v>
       </c>
       <c r="J11" s="21">
-        <v>250</v>
+        <v>9079</v>
       </c>
       <c r="K11" s="23">
-        <v>214</v>
+        <v>7640</v>
       </c>
       <c r="L11" s="25">
-        <v>75</v>
+        <v>2685</v>
       </c>
       <c r="M11" s="27">
-        <v>139</v>
+        <v>4956</v>
       </c>
       <c r="N11" s="29">
-        <v>25</v>
+        <v>922</v>
       </c>
       <c r="O11" s="31">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="P11" s="33">
-        <v>17</v>
+        <v>615</v>
       </c>
       <c r="Q11" s="35">
-        <v>82</v>
+        <v>2982</v>
       </c>
       <c r="R11" s="37">
-        <v>62</v>
+        <v>2202</v>
       </c>
       <c r="S11" s="39">
-        <v>20</v>
+        <v>780</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
@@ -2578,28 +2578,28 @@
         <v>0</v>
       </c>
       <c r="X11" s="49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z11" s="53">
-        <v>134</v>
+        <v>4789</v>
       </c>
       <c r="AA11" s="55">
-        <v>32</v>
+        <v>1082</v>
       </c>
       <c r="AB11" s="57">
-        <v>102</v>
+        <v>3707</v>
       </c>
       <c r="AC11" s="59">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="AD11" s="61">
-        <v>39</v>
+        <v>1383</v>
       </c>
       <c r="AE11" s="63">
-        <v>-27</v>
+        <v>-975</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>85</v>
+        <v>3045</v>
       </c>
       <c r="AJ11" s="73">
-        <v>53</v>
+        <v>1864</v>
       </c>
       <c r="AK11" s="75">
-        <v>31</v>
+        <v>1180</v>
       </c>
       <c r="AL11" s="77">
-        <v>1475</v>
+        <v>52819</v>
       </c>
     </row>
     <row r="12">
@@ -2628,58 +2628,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>345</v>
+        <v>11342</v>
       </c>
       <c r="C12" s="7">
-        <v>468</v>
+        <v>15339</v>
       </c>
       <c r="D12" s="9">
-        <v>-123</v>
+        <v>-3997</v>
       </c>
       <c r="E12" s="11">
-        <v>590</v>
+        <v>19421</v>
       </c>
       <c r="F12" s="13">
-        <v>464</v>
+        <v>15425</v>
       </c>
       <c r="G12" s="15">
-        <v>126</v>
+        <v>3996</v>
       </c>
       <c r="H12" s="17">
-        <v>126</v>
+        <v>4157</v>
       </c>
       <c r="I12" s="19">
-        <v>134</v>
+        <v>4318</v>
       </c>
       <c r="J12" s="21">
-        <v>-7</v>
+        <v>-161</v>
       </c>
       <c r="K12" s="23">
-        <v>59</v>
+        <v>1936</v>
       </c>
       <c r="L12" s="25">
-        <v>48</v>
+        <v>1563</v>
       </c>
       <c r="M12" s="27">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="N12" s="29">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="O12" s="31">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="P12" s="33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="35">
-        <v>14</v>
+        <v>436</v>
       </c>
       <c r="R12" s="37">
-        <v>17</v>
+        <v>573</v>
       </c>
       <c r="S12" s="39">
-        <v>-4</v>
+        <v>-138</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2694,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="X12" s="49">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="Y12" s="51">
-        <v>-5</v>
+        <v>-176</v>
       </c>
       <c r="Z12" s="53">
-        <v>23</v>
+        <v>772</v>
       </c>
       <c r="AA12" s="55">
-        <v>34</v>
+        <v>1094</v>
       </c>
       <c r="AB12" s="57">
-        <v>-11</v>
+        <v>-322</v>
       </c>
       <c r="AC12" s="59">
-        <v>27</v>
+        <v>876</v>
       </c>
       <c r="AD12" s="61">
-        <v>24</v>
+        <v>788</v>
       </c>
       <c r="AE12" s="63">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>46</v>
+        <v>1523</v>
       </c>
       <c r="AJ12" s="73">
-        <v>41</v>
+        <v>1362</v>
       </c>
       <c r="AK12" s="75">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="AL12" s="77">
-        <v>1107</v>
+        <v>36443</v>
       </c>
     </row>
     <row r="13">
@@ -2744,58 +2744,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>166</v>
+        <v>5454</v>
       </c>
       <c r="C13" s="7">
-        <v>139</v>
+        <v>4533</v>
       </c>
       <c r="D13" s="9">
-        <v>27</v>
+        <v>921</v>
       </c>
       <c r="E13" s="11">
-        <v>187</v>
+        <v>6118</v>
       </c>
       <c r="F13" s="13">
-        <v>154</v>
+        <v>5018</v>
       </c>
       <c r="G13" s="15">
-        <v>34</v>
+        <v>1100</v>
       </c>
       <c r="H13" s="17">
-        <v>87</v>
+        <v>2835</v>
       </c>
       <c r="I13" s="19">
-        <v>148</v>
+        <v>4867</v>
       </c>
       <c r="J13" s="21">
-        <v>-61</v>
+        <v>-2033</v>
       </c>
       <c r="K13" s="23">
-        <v>46</v>
+        <v>1490</v>
       </c>
       <c r="L13" s="25">
-        <v>40</v>
+        <v>1319</v>
       </c>
       <c r="M13" s="27">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="N13" s="29">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="O13" s="31">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="P13" s="33">
-        <v>-6</v>
+        <v>-191</v>
       </c>
       <c r="Q13" s="35">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="R13" s="37">
-        <v>17</v>
+        <v>552</v>
       </c>
       <c r="S13" s="39">
-        <v>-6</v>
+        <v>-200</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2816,22 +2816,22 @@
         <v>0</v>
       </c>
       <c r="Z13" s="53">
-        <v>22</v>
+        <v>715</v>
       </c>
       <c r="AA13" s="55">
-        <v>55</v>
+        <v>1811</v>
       </c>
       <c r="AB13" s="57">
-        <v>-33</v>
+        <v>-1096</v>
       </c>
       <c r="AC13" s="59">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="AD13" s="61">
-        <v>27</v>
+        <v>908</v>
       </c>
       <c r="AE13" s="63">
-        <v>-22</v>
+        <v>-718</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AJ13" s="73">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AK13" s="75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL13" s="77">
-        <v>442</v>
+        <v>14453</v>
       </c>
     </row>
     <row r="14">
@@ -2860,94 +2860,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>333</v>
+        <v>12671</v>
       </c>
       <c r="C14" s="7">
-        <v>305</v>
+        <v>11651</v>
       </c>
       <c r="D14" s="9">
-        <v>28</v>
+        <v>1020</v>
       </c>
       <c r="E14" s="11">
-        <v>415</v>
+        <v>16049</v>
       </c>
       <c r="F14" s="13">
-        <v>308</v>
+        <v>11744</v>
       </c>
       <c r="G14" s="15">
-        <v>107</v>
+        <v>4305</v>
       </c>
       <c r="H14" s="17">
-        <v>123</v>
+        <v>4673</v>
       </c>
       <c r="I14" s="19">
-        <v>262</v>
+        <v>10170</v>
       </c>
       <c r="J14" s="21">
-        <v>-139</v>
+        <v>-5497</v>
       </c>
       <c r="K14" s="23">
-        <v>52</v>
+        <v>1938</v>
       </c>
       <c r="L14" s="25">
-        <v>43</v>
+        <v>1626</v>
       </c>
       <c r="M14" s="27">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="N14" s="29">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="O14" s="31">
+        <v>104</v>
+      </c>
+      <c r="P14" s="33">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>779</v>
+      </c>
+      <c r="R14" s="37">
+        <v>1035</v>
+      </c>
+      <c r="S14" s="39">
+        <v>-256</v>
+      </c>
+      <c r="T14" s="41">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43">
+        <v>0</v>
+      </c>
+      <c r="V14" s="45">
+        <v>0</v>
+      </c>
+      <c r="W14" s="47">
         <v>3</v>
       </c>
-      <c r="P14" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="35">
-        <v>20</v>
-      </c>
-      <c r="R14" s="37">
-        <v>27</v>
-      </c>
-      <c r="S14" s="39">
-        <v>-6</v>
-      </c>
-      <c r="T14" s="41">
-        <v>0</v>
-      </c>
-      <c r="U14" s="43">
-        <v>0</v>
-      </c>
-      <c r="V14" s="45">
-        <v>0</v>
-      </c>
-      <c r="W14" s="47">
-        <v>0</v>
-      </c>
       <c r="X14" s="49">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="Y14" s="51">
-        <v>-2</v>
+        <v>-98</v>
       </c>
       <c r="Z14" s="53">
-        <v>15</v>
+        <v>555</v>
       </c>
       <c r="AA14" s="55">
-        <v>123</v>
+        <v>4790</v>
       </c>
       <c r="AB14" s="57">
-        <v>-108</v>
+        <v>-4234</v>
       </c>
       <c r="AC14" s="59">
-        <v>30</v>
+        <v>1179</v>
       </c>
       <c r="AD14" s="61">
-        <v>64</v>
+        <v>2515</v>
       </c>
       <c r="AE14" s="63">
-        <v>-34</v>
+        <v>-1336</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="AJ14" s="73">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="AK14" s="75">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="AL14" s="77">
-        <v>877</v>
+        <v>33642</v>
       </c>
     </row>
     <row r="15">
@@ -2976,58 +2976,58 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>287</v>
+        <v>13493</v>
       </c>
       <c r="C15" s="7">
-        <v>420</v>
+        <v>19725</v>
       </c>
       <c r="D15" s="9">
-        <v>-133</v>
+        <v>-6232</v>
       </c>
       <c r="E15" s="11">
-        <v>469</v>
+        <v>22007</v>
       </c>
       <c r="F15" s="13">
-        <v>349</v>
+        <v>16481</v>
       </c>
       <c r="G15" s="15">
-        <v>120</v>
+        <v>5526</v>
       </c>
       <c r="H15" s="17">
-        <v>182</v>
+        <v>8674</v>
       </c>
       <c r="I15" s="19">
-        <v>166</v>
+        <v>7854</v>
       </c>
       <c r="J15" s="21">
-        <v>15</v>
+        <v>820</v>
       </c>
       <c r="K15" s="23">
-        <v>29</v>
+        <v>1395</v>
       </c>
       <c r="L15" s="25">
-        <v>41</v>
+        <v>1911</v>
       </c>
       <c r="M15" s="27">
-        <v>-12</v>
+        <v>-516</v>
       </c>
       <c r="N15" s="29">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="O15" s="31">
-        <v>17</v>
+        <v>830</v>
       </c>
       <c r="P15" s="33">
-        <v>-16</v>
+        <v>-752</v>
       </c>
       <c r="Q15" s="35">
-        <v>42</v>
+        <v>2009</v>
       </c>
       <c r="R15" s="37">
-        <v>16</v>
+        <v>750</v>
       </c>
       <c r="S15" s="39">
-        <v>26</v>
+        <v>1259</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
@@ -3048,22 +3048,22 @@
         <v>0</v>
       </c>
       <c r="Z15" s="53">
-        <v>55</v>
+        <v>2631</v>
       </c>
       <c r="AA15" s="55">
-        <v>24</v>
+        <v>1127</v>
       </c>
       <c r="AB15" s="57">
-        <v>31</v>
+        <v>1504</v>
       </c>
       <c r="AC15" s="59">
-        <v>53</v>
+        <v>2561</v>
       </c>
       <c r="AD15" s="61">
-        <v>68</v>
+        <v>3236</v>
       </c>
       <c r="AE15" s="63">
-        <v>-15</v>
+        <v>-675</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3075,16 +3075,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="AJ15" s="73">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="AK15" s="75">
-        <v>-2</v>
+        <v>-113</v>
       </c>
       <c r="AL15" s="77">
-        <v>942</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="16">
@@ -3092,58 +3092,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>300</v>
+        <v>14286</v>
       </c>
       <c r="C16" s="7">
-        <v>187</v>
+        <v>8957</v>
       </c>
       <c r="D16" s="9">
-        <v>113</v>
+        <v>5329</v>
       </c>
       <c r="E16" s="11">
-        <v>371</v>
+        <v>17542</v>
       </c>
       <c r="F16" s="13">
-        <v>284</v>
+        <v>13582</v>
       </c>
       <c r="G16" s="15">
-        <v>87</v>
+        <v>3960</v>
       </c>
       <c r="H16" s="17">
-        <v>91</v>
+        <v>4405</v>
       </c>
       <c r="I16" s="19">
-        <v>316</v>
+        <v>14868</v>
       </c>
       <c r="J16" s="21">
-        <v>-225</v>
+        <v>-10462</v>
       </c>
       <c r="K16" s="23">
-        <v>41</v>
+        <v>2008</v>
       </c>
       <c r="L16" s="25">
-        <v>102</v>
+        <v>4759</v>
       </c>
       <c r="M16" s="27">
-        <v>-61</v>
+        <v>-2751</v>
       </c>
       <c r="N16" s="29">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="O16" s="31">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="P16" s="33">
-        <v>-19</v>
+        <v>-882</v>
       </c>
       <c r="Q16" s="35">
-        <v>19</v>
+        <v>919</v>
       </c>
       <c r="R16" s="37">
-        <v>21</v>
+        <v>978</v>
       </c>
       <c r="S16" s="39">
-        <v>-2</v>
+        <v>-58</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3164,22 +3164,22 @@
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <v>17</v>
+        <v>808</v>
       </c>
       <c r="AA16" s="55">
-        <v>60</v>
+        <v>2855</v>
       </c>
       <c r="AB16" s="57">
-        <v>-44</v>
+        <v>-2047</v>
       </c>
       <c r="AC16" s="59">
-        <v>12</v>
+        <v>575</v>
       </c>
       <c r="AD16" s="61">
-        <v>112</v>
+        <v>5299</v>
       </c>
       <c r="AE16" s="63">
-        <v>-101</v>
+        <v>-4723</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3191,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>35</v>
+        <v>1621</v>
       </c>
       <c r="AJ16" s="73">
-        <v>9</v>
+        <v>447</v>
       </c>
       <c r="AK16" s="75">
-        <v>26</v>
+        <v>1173</v>
       </c>
       <c r="AL16" s="77">
-        <v>798</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="17">
@@ -3208,94 +3208,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>343</v>
+        <v>18073</v>
       </c>
       <c r="C17" s="7">
-        <v>398</v>
+        <v>20933</v>
       </c>
       <c r="D17" s="9">
-        <v>-55</v>
+        <v>-2861</v>
       </c>
       <c r="E17" s="11">
-        <v>413</v>
+        <v>21802</v>
       </c>
       <c r="F17" s="13">
-        <v>517</v>
+        <v>27599</v>
       </c>
       <c r="G17" s="15">
-        <v>-104</v>
+        <v>-5797</v>
       </c>
       <c r="H17" s="17">
-        <v>203</v>
+        <v>10907</v>
       </c>
       <c r="I17" s="19">
-        <v>281</v>
+        <v>15354</v>
       </c>
       <c r="J17" s="21">
-        <v>-78</v>
+        <v>-4447</v>
       </c>
       <c r="K17" s="23">
-        <v>64</v>
+        <v>3453</v>
       </c>
       <c r="L17" s="25">
-        <v>72</v>
+        <v>3902</v>
       </c>
       <c r="M17" s="27">
-        <v>-7</v>
+        <v>-449</v>
       </c>
       <c r="N17" s="29">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="O17" s="31">
-        <v>8</v>
+        <v>421</v>
       </c>
       <c r="P17" s="33">
-        <v>-1</v>
+        <v>-72</v>
       </c>
       <c r="Q17" s="35">
-        <v>43</v>
+        <v>2347</v>
       </c>
       <c r="R17" s="37">
-        <v>45</v>
+        <v>2361</v>
       </c>
       <c r="S17" s="39">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="T17" s="41">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="U17" s="43">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="V17" s="45">
-        <v>-1</v>
+        <v>-46</v>
       </c>
       <c r="W17" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X17" s="49">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="Y17" s="51">
-        <v>-2</v>
+        <v>-97</v>
       </c>
       <c r="Z17" s="53">
-        <v>20</v>
+        <v>1135</v>
       </c>
       <c r="AA17" s="55">
-        <v>74</v>
+        <v>4058</v>
       </c>
       <c r="AB17" s="57">
-        <v>-54</v>
+        <v>-2923</v>
       </c>
       <c r="AC17" s="59">
-        <v>69</v>
+        <v>3573</v>
       </c>
       <c r="AD17" s="61">
-        <v>79</v>
+        <v>4419</v>
       </c>
       <c r="AE17" s="63">
-        <v>-11</v>
+        <v>-846</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>243</v>
+        <v>13392</v>
       </c>
       <c r="AJ17" s="73">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="AK17" s="75">
-        <v>237</v>
+        <v>13104</v>
       </c>
       <c r="AL17" s="77">
-        <v>1201</v>
+        <v>64174</v>
       </c>
     </row>
     <row r="18">
@@ -3324,94 +3324,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>202</v>
+        <v>12578</v>
       </c>
       <c r="C18" s="7">
-        <v>223</v>
+        <v>14081</v>
       </c>
       <c r="D18" s="9">
-        <v>-20</v>
+        <v>-1503</v>
       </c>
       <c r="E18" s="11">
-        <v>421</v>
+        <v>26107</v>
       </c>
       <c r="F18" s="13">
-        <v>394</v>
+        <v>24596</v>
       </c>
       <c r="G18" s="15">
-        <v>27</v>
+        <v>1511</v>
       </c>
       <c r="H18" s="17">
-        <v>240</v>
+        <v>15234</v>
       </c>
       <c r="I18" s="19">
-        <v>259</v>
+        <v>15976</v>
       </c>
       <c r="J18" s="21">
-        <v>-19</v>
+        <v>-742</v>
       </c>
       <c r="K18" s="23">
-        <v>78</v>
+        <v>4927</v>
       </c>
       <c r="L18" s="25">
-        <v>45</v>
+        <v>2782</v>
       </c>
       <c r="M18" s="27">
-        <v>34</v>
+        <v>2145</v>
       </c>
       <c r="N18" s="29">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="O18" s="31">
+        <v>372</v>
+      </c>
+      <c r="P18" s="33">
+        <v>-118</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>2261</v>
+      </c>
+      <c r="R18" s="37">
+        <v>2570</v>
+      </c>
+      <c r="S18" s="39">
+        <v>-310</v>
+      </c>
+      <c r="T18" s="41">
+        <v>13</v>
+      </c>
+      <c r="U18" s="43">
+        <v>0</v>
+      </c>
+      <c r="V18" s="45">
+        <v>13</v>
+      </c>
+      <c r="W18" s="47">
         <v>6</v>
       </c>
-      <c r="P18" s="33">
-        <v>-2</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>35</v>
-      </c>
-      <c r="R18" s="37">
-        <v>42</v>
-      </c>
-      <c r="S18" s="39">
-        <v>-7</v>
-      </c>
-      <c r="T18" s="41">
-        <v>0</v>
-      </c>
-      <c r="U18" s="43">
-        <v>0</v>
-      </c>
-      <c r="V18" s="45">
-        <v>0</v>
-      </c>
-      <c r="W18" s="47">
-        <v>0</v>
-      </c>
       <c r="X18" s="49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="51">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="Z18" s="53">
-        <v>26</v>
+        <v>1650</v>
       </c>
       <c r="AA18" s="55">
-        <v>87</v>
+        <v>5406</v>
       </c>
       <c r="AB18" s="57">
-        <v>-60</v>
+        <v>-3757</v>
       </c>
       <c r="AC18" s="59">
-        <v>95</v>
+        <v>6124</v>
       </c>
       <c r="AD18" s="61">
-        <v>79</v>
+        <v>4830</v>
       </c>
       <c r="AE18" s="63">
-        <v>17</v>
+        <v>1294</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>18</v>
+        <v>1128</v>
       </c>
       <c r="AJ18" s="73">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="AK18" s="75">
-        <v>12</v>
+        <v>733</v>
       </c>
       <c r="AL18" s="77">
-        <v>882</v>
+        <v>55047</v>
       </c>
     </row>
     <row r="19">
@@ -3440,94 +3440,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
+        <v>16716</v>
+      </c>
+      <c r="C19" s="7">
+        <v>23745</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-7029</v>
+      </c>
+      <c r="E19" s="11">
+        <v>43615</v>
+      </c>
+      <c r="F19" s="13">
+        <v>36222</v>
+      </c>
+      <c r="G19" s="15">
+        <v>7393</v>
+      </c>
+      <c r="H19" s="17">
+        <v>17034</v>
+      </c>
+      <c r="I19" s="19">
+        <v>17740</v>
+      </c>
+      <c r="J19" s="21">
+        <v>-706</v>
+      </c>
+      <c r="K19" s="23">
+        <v>3635</v>
+      </c>
+      <c r="L19" s="25">
+        <v>3661</v>
+      </c>
+      <c r="M19" s="27">
+        <v>-26</v>
+      </c>
+      <c r="N19" s="29">
         <v>250</v>
       </c>
-      <c r="C19" s="7">
-        <v>356</v>
-      </c>
-      <c r="D19" s="9">
-        <v>-106</v>
-      </c>
-      <c r="E19" s="11">
-        <v>648</v>
-      </c>
-      <c r="F19" s="13">
-        <v>540</v>
-      </c>
-      <c r="G19" s="15">
-        <v>109</v>
-      </c>
-      <c r="H19" s="17">
-        <v>256</v>
-      </c>
-      <c r="I19" s="19">
-        <v>264</v>
-      </c>
-      <c r="J19" s="21">
-        <v>-8</v>
-      </c>
-      <c r="K19" s="23">
-        <v>55</v>
-      </c>
-      <c r="L19" s="25">
-        <v>55</v>
-      </c>
-      <c r="M19" s="27">
-        <v>0</v>
-      </c>
-      <c r="N19" s="29">
-        <v>4</v>
-      </c>
       <c r="O19" s="31">
-        <v>17</v>
+        <v>1108</v>
       </c>
       <c r="P19" s="33">
-        <v>-13</v>
+        <v>-857</v>
       </c>
       <c r="Q19" s="35">
-        <v>21</v>
+        <v>1431</v>
       </c>
       <c r="R19" s="37">
-        <v>40</v>
+        <v>2717</v>
       </c>
       <c r="S19" s="39">
-        <v>-19</v>
+        <v>-1285</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
       </c>
       <c r="U19" s="43">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="V19" s="45">
-        <v>-1</v>
+        <v>-81</v>
       </c>
       <c r="W19" s="47">
         <v>0</v>
       </c>
       <c r="X19" s="49">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="Y19" s="51">
-        <v>-1</v>
+        <v>-89</v>
       </c>
       <c r="Z19" s="53">
-        <v>111</v>
+        <v>7423</v>
       </c>
       <c r="AA19" s="55">
-        <v>91</v>
+        <v>6123</v>
       </c>
       <c r="AB19" s="57">
-        <v>20</v>
+        <v>1300</v>
       </c>
       <c r="AC19" s="59">
-        <v>65</v>
+        <v>4295</v>
       </c>
       <c r="AD19" s="61">
-        <v>59</v>
+        <v>3961</v>
       </c>
       <c r="AE19" s="63">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3539,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>10</v>
+        <v>655</v>
       </c>
       <c r="AJ19" s="73">
-        <v>5</v>
+        <v>312</v>
       </c>
       <c r="AK19" s="75">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="AL19" s="77">
-        <v>1164</v>
+        <v>78019</v>
       </c>
     </row>
     <row r="20">
@@ -3556,58 +3556,58 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>564</v>
+        <v>42947</v>
       </c>
       <c r="C20" s="7">
-        <v>867</v>
+        <v>65693</v>
       </c>
       <c r="D20" s="9">
-        <v>-302</v>
+        <v>-22747</v>
       </c>
       <c r="E20" s="11">
-        <v>1956</v>
+        <v>149623</v>
       </c>
       <c r="F20" s="13">
-        <v>1703</v>
+        <v>130599</v>
       </c>
       <c r="G20" s="15">
-        <v>253</v>
+        <v>19024</v>
       </c>
       <c r="H20" s="17">
-        <v>392</v>
+        <v>29523</v>
       </c>
       <c r="I20" s="19">
-        <v>327</v>
+        <v>24598</v>
       </c>
       <c r="J20" s="21">
-        <v>64</v>
+        <v>4926</v>
       </c>
       <c r="K20" s="23">
-        <v>115</v>
+        <v>8726</v>
       </c>
       <c r="L20" s="25">
-        <v>82</v>
+        <v>6174</v>
       </c>
       <c r="M20" s="27">
-        <v>32</v>
+        <v>2552</v>
       </c>
       <c r="N20" s="29">
-        <v>22</v>
+        <v>1669</v>
       </c>
       <c r="O20" s="31">
-        <v>34</v>
+        <v>2624</v>
       </c>
       <c r="P20" s="33">
-        <v>-12</v>
+        <v>-955</v>
       </c>
       <c r="Q20" s="35">
-        <v>65</v>
+        <v>4867</v>
       </c>
       <c r="R20" s="37">
-        <v>36</v>
+        <v>2710</v>
       </c>
       <c r="S20" s="39">
-        <v>29</v>
+        <v>2157</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
@@ -3622,28 +3622,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="49">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="Y20" s="51">
-        <v>-2</v>
+        <v>-178</v>
       </c>
       <c r="Z20" s="53">
-        <v>60</v>
+        <v>4586</v>
       </c>
       <c r="AA20" s="55">
-        <v>55</v>
+        <v>4007</v>
       </c>
       <c r="AB20" s="57">
-        <v>5</v>
+        <v>579</v>
       </c>
       <c r="AC20" s="59">
-        <v>131</v>
+        <v>9676</v>
       </c>
       <c r="AD20" s="61">
-        <v>117</v>
+        <v>8905</v>
       </c>
       <c r="AE20" s="63">
-        <v>13</v>
+        <v>771</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>13</v>
+        <v>985</v>
       </c>
       <c r="AJ20" s="73">
-        <v>28</v>
+        <v>2188</v>
       </c>
       <c r="AK20" s="75">
-        <v>-15</v>
+        <v>-1203</v>
       </c>
       <c r="AL20" s="77">
-        <v>2925</v>
+        <v>223078</v>
       </c>
     </row>
     <row r="21">
@@ -3672,94 +3672,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>251</v>
+        <v>18133</v>
       </c>
       <c r="C21" s="7">
-        <v>248</v>
+        <v>18180</v>
       </c>
       <c r="D21" s="9">
-        <v>3</v>
+        <v>-47</v>
       </c>
       <c r="E21" s="11">
-        <v>434</v>
+        <v>31728</v>
       </c>
       <c r="F21" s="13">
-        <v>451</v>
+        <v>33073</v>
       </c>
       <c r="G21" s="15">
-        <v>-17</v>
+        <v>-1345</v>
       </c>
       <c r="H21" s="17">
-        <v>158</v>
+        <v>11620</v>
       </c>
       <c r="I21" s="19">
-        <v>155</v>
+        <v>11013</v>
       </c>
       <c r="J21" s="21">
-        <v>3</v>
+        <v>607</v>
       </c>
       <c r="K21" s="23">
-        <v>49</v>
+        <v>3614</v>
       </c>
       <c r="L21" s="25">
-        <v>60</v>
+        <v>4329</v>
       </c>
       <c r="M21" s="27">
-        <v>-11</v>
+        <v>-715</v>
       </c>
       <c r="N21" s="29">
-        <v>21</v>
+        <v>1597</v>
       </c>
       <c r="O21" s="31">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="P21" s="33">
-        <v>18</v>
+        <v>1321</v>
       </c>
       <c r="Q21" s="35">
-        <v>35</v>
+        <v>2563</v>
       </c>
       <c r="R21" s="37">
-        <v>29</v>
+        <v>1961</v>
       </c>
       <c r="S21" s="39">
-        <v>6</v>
+        <v>602</v>
       </c>
       <c r="T21" s="41">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="W21" s="47">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="X21" s="49">
         <v>0</v>
       </c>
       <c r="Y21" s="51">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="Z21" s="53">
-        <v>33</v>
+        <v>2422</v>
       </c>
       <c r="AA21" s="55">
-        <v>45</v>
+        <v>3267</v>
       </c>
       <c r="AB21" s="57">
-        <v>-12</v>
+        <v>-846</v>
       </c>
       <c r="AC21" s="59">
-        <v>16</v>
+        <v>1153</v>
       </c>
       <c r="AD21" s="61">
-        <v>17</v>
+        <v>1179</v>
       </c>
       <c r="AE21" s="63">
-        <v>-1</v>
+        <v>-26</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3771,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>14</v>
+        <v>1003</v>
       </c>
       <c r="AJ21" s="73">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="AK21" s="75">
-        <v>11</v>
+        <v>785</v>
       </c>
       <c r="AL21" s="77">
-        <v>857</v>
+        <v>62484</v>
       </c>
     </row>
     <row r="22">
@@ -3788,94 +3788,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>213</v>
+        <v>15126</v>
       </c>
       <c r="C22" s="7">
-        <v>222</v>
+        <v>15925</v>
       </c>
       <c r="D22" s="9">
-        <v>-9</v>
+        <v>-799</v>
       </c>
       <c r="E22" s="11">
-        <v>620</v>
+        <v>44611</v>
       </c>
       <c r="F22" s="13">
-        <v>439</v>
+        <v>31370</v>
       </c>
       <c r="G22" s="15">
-        <v>181</v>
+        <v>13241</v>
       </c>
       <c r="H22" s="17">
-        <v>153</v>
+        <v>10996</v>
       </c>
       <c r="I22" s="19">
-        <v>333</v>
+        <v>24028</v>
       </c>
       <c r="J22" s="21">
-        <v>-179</v>
+        <v>-13032</v>
       </c>
       <c r="K22" s="23">
+        <v>3542</v>
+      </c>
+      <c r="L22" s="25">
+        <v>7914</v>
+      </c>
+      <c r="M22" s="27">
+        <v>-4372</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1199</v>
+      </c>
+      <c r="O22" s="31">
+        <v>5052</v>
+      </c>
+      <c r="P22" s="33">
+        <v>-3853</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>1222</v>
+      </c>
+      <c r="R22" s="37">
+        <v>4229</v>
+      </c>
+      <c r="S22" s="39">
+        <v>-3007</v>
+      </c>
+      <c r="T22" s="41">
+        <v>0</v>
+      </c>
+      <c r="U22" s="43">
+        <v>83</v>
+      </c>
+      <c r="V22" s="45">
+        <v>-83</v>
+      </c>
+      <c r="W22" s="47">
+        <v>6</v>
+      </c>
+      <c r="X22" s="49">
         <v>50</v>
       </c>
-      <c r="L22" s="25">
-        <v>107</v>
-      </c>
-      <c r="M22" s="27">
-        <v>-57</v>
-      </c>
-      <c r="N22" s="29">
-        <v>16</v>
-      </c>
-      <c r="O22" s="31">
-        <v>70</v>
-      </c>
-      <c r="P22" s="33">
-        <v>-54</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>17</v>
-      </c>
-      <c r="R22" s="37">
-        <v>59</v>
-      </c>
-      <c r="S22" s="39">
-        <v>-42</v>
-      </c>
-      <c r="T22" s="41">
-        <v>0</v>
-      </c>
-      <c r="U22" s="43">
-        <v>1</v>
-      </c>
-      <c r="V22" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W22" s="47">
-        <v>0</v>
-      </c>
-      <c r="X22" s="49">
-        <v>1</v>
-      </c>
       <c r="Y22" s="51">
-        <v>-1</v>
+        <v>-43</v>
       </c>
       <c r="Z22" s="53">
-        <v>40</v>
+        <v>2926</v>
       </c>
       <c r="AA22" s="55">
-        <v>81</v>
+        <v>5767</v>
       </c>
       <c r="AB22" s="57">
-        <v>-40</v>
+        <v>-2840</v>
       </c>
       <c r="AC22" s="59">
-        <v>29</v>
+        <v>2101</v>
       </c>
       <c r="AD22" s="61">
-        <v>13</v>
+        <v>934</v>
       </c>
       <c r="AE22" s="63">
-        <v>16</v>
+        <v>1166</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>16</v>
+        <v>1141</v>
       </c>
       <c r="AJ22" s="73">
-        <v>8</v>
+        <v>550</v>
       </c>
       <c r="AK22" s="75">
-        <v>8</v>
+        <v>590</v>
       </c>
       <c r="AL22" s="77">
-        <v>1002</v>
+        <v>71874</v>
       </c>
     </row>
     <row r="23">
@@ -3904,115 +3904,115 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>309</v>
+        <v>24008</v>
       </c>
       <c r="C23" s="7">
-        <v>247</v>
+        <v>19243</v>
       </c>
       <c r="D23" s="9">
-        <v>62</v>
+        <v>4765</v>
       </c>
       <c r="E23" s="11">
-        <v>727</v>
+        <v>56420</v>
       </c>
       <c r="F23" s="13">
+        <v>54499</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1920</v>
+      </c>
+      <c r="H23" s="17">
+        <v>24627</v>
+      </c>
+      <c r="I23" s="19">
+        <v>30427</v>
+      </c>
+      <c r="J23" s="21">
+        <v>-5800</v>
+      </c>
+      <c r="K23" s="23">
+        <v>14834</v>
+      </c>
+      <c r="L23" s="25">
+        <v>11377</v>
+      </c>
+      <c r="M23" s="27">
+        <v>3457</v>
+      </c>
+      <c r="N23" s="29">
+        <v>1805</v>
+      </c>
+      <c r="O23" s="31">
+        <v>1364</v>
+      </c>
+      <c r="P23" s="33">
+        <v>441</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>1120</v>
+      </c>
+      <c r="R23" s="37">
+        <v>4800</v>
+      </c>
+      <c r="S23" s="39">
+        <v>-3680</v>
+      </c>
+      <c r="T23" s="41">
+        <v>0</v>
+      </c>
+      <c r="U23" s="43">
+        <v>0</v>
+      </c>
+      <c r="V23" s="45">
+        <v>0</v>
+      </c>
+      <c r="W23" s="47">
+        <v>1</v>
+      </c>
+      <c r="X23" s="49">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="51">
+        <v>-30</v>
+      </c>
+      <c r="Z23" s="53">
+        <v>3605</v>
+      </c>
+      <c r="AA23" s="55">
+        <v>10579</v>
+      </c>
+      <c r="AB23" s="57">
+        <v>-6973</v>
+      </c>
+      <c r="AC23" s="59">
+        <v>3261</v>
+      </c>
+      <c r="AD23" s="61">
+        <v>2276</v>
+      </c>
+      <c r="AE23" s="63">
+        <v>986</v>
+      </c>
+      <c r="AF23" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="71">
         <v>701</v>
       </c>
-      <c r="G23" s="15">
-        <v>26</v>
-      </c>
-      <c r="H23" s="17">
-        <v>315</v>
-      </c>
-      <c r="I23" s="19">
-        <v>392</v>
-      </c>
-      <c r="J23" s="21">
-        <v>-77</v>
-      </c>
-      <c r="K23" s="23">
-        <v>190</v>
-      </c>
-      <c r="L23" s="25">
-        <v>147</v>
-      </c>
-      <c r="M23" s="27">
-        <v>43</v>
-      </c>
-      <c r="N23" s="29">
-        <v>23</v>
-      </c>
-      <c r="O23" s="31">
-        <v>18</v>
-      </c>
-      <c r="P23" s="33">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="35">
-        <v>14</v>
-      </c>
-      <c r="R23" s="37">
-        <v>62</v>
-      </c>
-      <c r="S23" s="39">
-        <v>-47</v>
-      </c>
-      <c r="T23" s="41">
-        <v>0</v>
-      </c>
-      <c r="U23" s="43">
-        <v>0</v>
-      </c>
-      <c r="V23" s="45">
-        <v>0</v>
-      </c>
-      <c r="W23" s="47">
-        <v>0</v>
-      </c>
-      <c r="X23" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="53">
-        <v>46</v>
-      </c>
-      <c r="AA23" s="55">
-        <v>136</v>
-      </c>
-      <c r="AB23" s="57">
-        <v>-90</v>
-      </c>
-      <c r="AC23" s="59">
-        <v>42</v>
-      </c>
-      <c r="AD23" s="61">
-        <v>29</v>
-      </c>
-      <c r="AE23" s="63">
-        <v>13</v>
-      </c>
-      <c r="AF23" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="71">
-        <v>9</v>
-      </c>
       <c r="AJ23" s="73">
-        <v>21</v>
+        <v>1586</v>
       </c>
       <c r="AK23" s="75">
-        <v>-12</v>
+        <v>-885</v>
       </c>
       <c r="AL23" s="77">
-        <v>1360</v>
+        <v>105756</v>
       </c>
     </row>
     <row r="24">
@@ -4020,94 +4020,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>734</v>
+        <v>63125</v>
       </c>
       <c r="C24" s="7">
-        <v>774</v>
+        <v>66060</v>
       </c>
       <c r="D24" s="9">
-        <v>-40</v>
+        <v>-2935</v>
       </c>
       <c r="E24" s="11">
-        <v>1640</v>
+        <v>138935</v>
       </c>
       <c r="F24" s="13">
-        <v>1906</v>
+        <v>162271</v>
       </c>
       <c r="G24" s="15">
-        <v>-266</v>
+        <v>-23336</v>
       </c>
       <c r="H24" s="17">
-        <v>688</v>
+        <v>58849</v>
       </c>
       <c r="I24" s="19">
-        <v>382</v>
+        <v>32619</v>
       </c>
       <c r="J24" s="21">
-        <v>306</v>
+        <v>26231</v>
       </c>
       <c r="K24" s="23">
-        <v>119</v>
+        <v>9997</v>
       </c>
       <c r="L24" s="25">
-        <v>101</v>
+        <v>8638</v>
       </c>
       <c r="M24" s="27">
-        <v>18</v>
+        <v>1359</v>
       </c>
       <c r="N24" s="29">
-        <v>52</v>
+        <v>4374</v>
       </c>
       <c r="O24" s="31">
-        <v>34</v>
+        <v>2955</v>
       </c>
       <c r="P24" s="33">
-        <v>17</v>
+        <v>1418</v>
       </c>
       <c r="Q24" s="35">
-        <v>132</v>
+        <v>11334</v>
       </c>
       <c r="R24" s="37">
-        <v>52</v>
+        <v>4374</v>
       </c>
       <c r="S24" s="39">
-        <v>80</v>
+        <v>6960</v>
       </c>
       <c r="T24" s="41">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="U24" s="43">
         <v>0</v>
       </c>
       <c r="V24" s="45">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="W24" s="47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X24" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z24" s="53">
-        <v>265</v>
+        <v>23084</v>
       </c>
       <c r="AA24" s="55">
-        <v>97</v>
+        <v>8331</v>
       </c>
       <c r="AB24" s="57">
-        <v>168</v>
+        <v>14753</v>
       </c>
       <c r="AC24" s="59">
-        <v>116</v>
+        <v>9722</v>
       </c>
       <c r="AD24" s="61">
-        <v>98</v>
+        <v>8319</v>
       </c>
       <c r="AE24" s="63">
-        <v>19</v>
+        <v>1403</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4119,16 +4119,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>42</v>
+        <v>3631</v>
       </c>
       <c r="AJ24" s="73">
-        <v>43</v>
+        <v>3591</v>
       </c>
       <c r="AK24" s="75">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL24" s="77">
-        <v>3104</v>
+        <v>264540</v>
       </c>
     </row>
     <row r="25">
@@ -4136,94 +4136,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>821</v>
+        <v>62569</v>
       </c>
       <c r="C25" s="7">
-        <v>1094</v>
+        <v>84570</v>
       </c>
       <c r="D25" s="9">
-        <v>-273</v>
+        <v>-22002</v>
       </c>
       <c r="E25" s="11">
-        <v>2201</v>
+        <v>171118</v>
       </c>
       <c r="F25" s="13">
-        <v>1898</v>
+        <v>147978</v>
       </c>
       <c r="G25" s="15">
-        <v>303</v>
+        <v>23140</v>
       </c>
       <c r="H25" s="17">
-        <v>377</v>
+        <v>29073</v>
       </c>
       <c r="I25" s="19">
-        <v>423</v>
+        <v>31416</v>
       </c>
       <c r="J25" s="21">
-        <v>-46</v>
+        <v>-2343</v>
       </c>
       <c r="K25" s="23">
+        <v>5497</v>
+      </c>
+      <c r="L25" s="25">
+        <v>4392</v>
+      </c>
+      <c r="M25" s="27">
+        <v>1105</v>
+      </c>
+      <c r="N25" s="29">
+        <v>2936</v>
+      </c>
+      <c r="O25" s="31">
+        <v>2880</v>
+      </c>
+      <c r="P25" s="33">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>4727</v>
+      </c>
+      <c r="R25" s="37">
+        <v>5977</v>
+      </c>
+      <c r="S25" s="39">
+        <v>-1250</v>
+      </c>
+      <c r="T25" s="41">
+        <v>0</v>
+      </c>
+      <c r="U25" s="43">
         <v>73</v>
       </c>
-      <c r="L25" s="25">
-        <v>58</v>
-      </c>
-      <c r="M25" s="27">
-        <v>15</v>
-      </c>
-      <c r="N25" s="29">
-        <v>39</v>
-      </c>
-      <c r="O25" s="31">
-        <v>40</v>
-      </c>
-      <c r="P25" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="35">
-        <v>59</v>
-      </c>
-      <c r="R25" s="37">
-        <v>81</v>
-      </c>
-      <c r="S25" s="39">
-        <v>-22</v>
-      </c>
-      <c r="T25" s="41">
-        <v>0</v>
-      </c>
-      <c r="U25" s="43">
-        <v>1</v>
-      </c>
       <c r="V25" s="45">
-        <v>-1</v>
+        <v>-73</v>
       </c>
       <c r="W25" s="47">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X25" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="51">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z25" s="53">
-        <v>60</v>
+        <v>4667</v>
       </c>
       <c r="AA25" s="55">
-        <v>206</v>
+        <v>15296</v>
       </c>
       <c r="AB25" s="57">
-        <v>-146</v>
+        <v>-10629</v>
       </c>
       <c r="AC25" s="59">
-        <v>146</v>
+        <v>11220</v>
       </c>
       <c r="AD25" s="61">
-        <v>37</v>
+        <v>2794</v>
       </c>
       <c r="AE25" s="63">
-        <v>108</v>
+        <v>8427</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4235,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>40</v>
+        <v>3195</v>
       </c>
       <c r="AJ25" s="73">
-        <v>24</v>
+        <v>1990</v>
       </c>
       <c r="AK25" s="75">
-        <v>16</v>
+        <v>1205</v>
       </c>
       <c r="AL25" s="77">
-        <v>3440</v>
+        <v>265954</v>
       </c>
     </row>
     <row r="26">
@@ -4252,94 +4252,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>559</v>
+        <v>42975</v>
       </c>
       <c r="C26" s="7">
-        <v>428</v>
+        <v>33089</v>
       </c>
       <c r="D26" s="9">
-        <v>130</v>
+        <v>9886</v>
       </c>
       <c r="E26" s="11">
-        <v>763</v>
+        <v>59204</v>
       </c>
       <c r="F26" s="13">
-        <v>673</v>
+        <v>52434</v>
       </c>
       <c r="G26" s="15">
-        <v>90</v>
+        <v>6769</v>
       </c>
       <c r="H26" s="17">
-        <v>296</v>
+        <v>23003</v>
       </c>
       <c r="I26" s="19">
-        <v>634</v>
+        <v>48826</v>
       </c>
       <c r="J26" s="21">
-        <v>-339</v>
+        <v>-25824</v>
       </c>
       <c r="K26" s="23">
-        <v>43</v>
+        <v>3351</v>
       </c>
       <c r="L26" s="25">
-        <v>73</v>
+        <v>5680</v>
       </c>
       <c r="M26" s="27">
-        <v>-31</v>
+        <v>-2329</v>
       </c>
       <c r="N26" s="29">
-        <v>17</v>
+        <v>1354</v>
       </c>
       <c r="O26" s="31">
-        <v>22</v>
+        <v>1726</v>
       </c>
       <c r="P26" s="33">
-        <v>-5</v>
+        <v>-372</v>
       </c>
       <c r="Q26" s="35">
-        <v>28</v>
+        <v>2236</v>
       </c>
       <c r="R26" s="37">
-        <v>97</v>
+        <v>7476</v>
       </c>
       <c r="S26" s="39">
-        <v>-70</v>
+        <v>-5240</v>
       </c>
       <c r="T26" s="41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U26" s="43">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="V26" s="45">
-        <v>-2</v>
+        <v>-183</v>
       </c>
       <c r="W26" s="47">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="X26" s="49">
-        <v>7</v>
+        <v>506</v>
       </c>
       <c r="Y26" s="51">
-        <v>-5</v>
+        <v>-337</v>
       </c>
       <c r="Z26" s="53">
-        <v>32</v>
+        <v>2527</v>
       </c>
       <c r="AA26" s="55">
-        <v>249</v>
+        <v>19197</v>
       </c>
       <c r="AB26" s="57">
-        <v>-217</v>
+        <v>-16670</v>
       </c>
       <c r="AC26" s="59">
-        <v>174</v>
+        <v>13351</v>
       </c>
       <c r="AD26" s="61">
-        <v>182</v>
+        <v>14045</v>
       </c>
       <c r="AE26" s="63">
-        <v>-9</v>
+        <v>-693</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4351,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>144</v>
+        <v>11071</v>
       </c>
       <c r="AJ26" s="73">
-        <v>25</v>
+        <v>1903</v>
       </c>
       <c r="AK26" s="75">
-        <v>119</v>
+        <v>9168</v>
       </c>
       <c r="AL26" s="77">
-        <v>1761</v>
+        <v>136252</v>
       </c>
     </row>
     <row r="27">
@@ -4368,94 +4368,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>536</v>
+        <v>46393</v>
       </c>
       <c r="C27" s="7">
-        <v>678</v>
+        <v>60767</v>
       </c>
       <c r="D27" s="9">
-        <v>-142</v>
+        <v>-14375</v>
       </c>
       <c r="E27" s="11">
-        <v>1935</v>
+        <v>166661</v>
       </c>
       <c r="F27" s="13">
-        <v>1743</v>
+        <v>150446</v>
       </c>
       <c r="G27" s="15">
-        <v>192</v>
+        <v>16215</v>
       </c>
       <c r="H27" s="17">
-        <v>471</v>
+        <v>43302</v>
       </c>
       <c r="I27" s="19">
-        <v>561</v>
+        <v>48151</v>
       </c>
       <c r="J27" s="21">
-        <v>-90</v>
+        <v>-4849</v>
       </c>
       <c r="K27" s="23">
-        <v>104</v>
+        <v>9833</v>
       </c>
       <c r="L27" s="25">
-        <v>66</v>
+        <v>6028</v>
       </c>
       <c r="M27" s="27">
-        <v>38</v>
+        <v>3805</v>
       </c>
       <c r="N27" s="29">
-        <v>29</v>
+        <v>2663</v>
       </c>
       <c r="O27" s="31">
-        <v>40</v>
+        <v>3284</v>
       </c>
       <c r="P27" s="33">
-        <v>-11</v>
+        <v>-621</v>
       </c>
       <c r="Q27" s="35">
-        <v>78</v>
+        <v>7416</v>
       </c>
       <c r="R27" s="37">
-        <v>107</v>
+        <v>8951</v>
       </c>
       <c r="S27" s="39">
-        <v>-29</v>
+        <v>-1534</v>
       </c>
       <c r="T27" s="41">
+        <v>150</v>
+      </c>
+      <c r="U27" s="43">
+        <v>807</v>
+      </c>
+      <c r="V27" s="45">
+        <v>-657</v>
+      </c>
+      <c r="W27" s="47">
         <v>1</v>
       </c>
-      <c r="U27" s="43">
-        <v>10</v>
-      </c>
-      <c r="V27" s="45">
-        <v>-9</v>
-      </c>
-      <c r="W27" s="47">
-        <v>0</v>
-      </c>
       <c r="X27" s="49">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="Y27" s="51">
-        <v>-5</v>
+        <v>-419</v>
       </c>
       <c r="Z27" s="53">
-        <v>127</v>
+        <v>11674</v>
       </c>
       <c r="AA27" s="55">
-        <v>138</v>
+        <v>11598</v>
       </c>
       <c r="AB27" s="57">
-        <v>-11</v>
+        <v>76</v>
       </c>
       <c r="AC27" s="59">
-        <v>132</v>
+        <v>11565</v>
       </c>
       <c r="AD27" s="61">
-        <v>195</v>
+        <v>17063</v>
       </c>
       <c r="AE27" s="63">
-        <v>-62</v>
+        <v>-5498</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4467,16 +4467,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>103</v>
+        <v>8567</v>
       </c>
       <c r="AJ27" s="73">
-        <v>64</v>
+        <v>5558</v>
       </c>
       <c r="AK27" s="75">
-        <v>40</v>
+        <v>3009</v>
       </c>
       <c r="AL27" s="77">
-        <v>3046</v>
+        <v>264922</v>
       </c>
     </row>
     <row r="28">
@@ -4484,94 +4484,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>287</v>
+        <v>29800</v>
       </c>
       <c r="C28" s="7">
-        <v>356</v>
+        <v>37188</v>
       </c>
       <c r="D28" s="9">
-        <v>-69</v>
+        <v>-7389</v>
       </c>
       <c r="E28" s="11">
-        <v>645</v>
+        <v>66881</v>
       </c>
       <c r="F28" s="13">
-        <v>684</v>
+        <v>71037</v>
       </c>
       <c r="G28" s="15">
-        <v>-39</v>
+        <v>-4156</v>
       </c>
       <c r="H28" s="17">
-        <v>327</v>
+        <v>34049</v>
       </c>
       <c r="I28" s="19">
-        <v>216</v>
+        <v>22175</v>
       </c>
       <c r="J28" s="21">
-        <v>111</v>
+        <v>11874</v>
       </c>
       <c r="K28" s="23">
-        <v>58</v>
+        <v>6030</v>
       </c>
       <c r="L28" s="25">
-        <v>56</v>
+        <v>5746</v>
       </c>
       <c r="M28" s="27">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="N28" s="29">
-        <v>33</v>
+        <v>3477</v>
       </c>
       <c r="O28" s="31">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="P28" s="33">
-        <v>30</v>
+        <v>3137</v>
       </c>
       <c r="Q28" s="35">
-        <v>73</v>
+        <v>7636</v>
       </c>
       <c r="R28" s="37">
-        <v>34</v>
+        <v>3433</v>
       </c>
       <c r="S28" s="39">
-        <v>40</v>
+        <v>4202</v>
       </c>
       <c r="T28" s="41">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="U28" s="43">
         <v>0</v>
       </c>
       <c r="V28" s="45">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="W28" s="47">
         <v>0</v>
       </c>
       <c r="X28" s="49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y28" s="51">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="Z28" s="53">
-        <v>102</v>
+        <v>10662</v>
       </c>
       <c r="AA28" s="55">
-        <v>46</v>
+        <v>4698</v>
       </c>
       <c r="AB28" s="57">
-        <v>56</v>
+        <v>5964</v>
       </c>
       <c r="AC28" s="59">
-        <v>58</v>
+        <v>6051</v>
       </c>
       <c r="AD28" s="61">
-        <v>77</v>
+        <v>7920</v>
       </c>
       <c r="AE28" s="63">
-        <v>-19</v>
+        <v>-1870</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4583,16 +4583,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>8</v>
+        <v>859</v>
       </c>
       <c r="AJ28" s="73">
-        <v>11</v>
+        <v>1188</v>
       </c>
       <c r="AK28" s="75">
-        <v>-3</v>
+        <v>-329</v>
       </c>
       <c r="AL28" s="77">
-        <v>1268</v>
+        <v>131588</v>
       </c>
     </row>
     <row r="29">
@@ -4600,94 +4600,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>440</v>
+        <v>44154</v>
       </c>
       <c r="C29" s="7">
-        <v>446</v>
+        <v>44857</v>
       </c>
       <c r="D29" s="9">
-        <v>-5</v>
+        <v>-704</v>
       </c>
       <c r="E29" s="11">
-        <v>635</v>
+        <v>63825</v>
       </c>
       <c r="F29" s="13">
-        <v>855</v>
+        <v>86151</v>
       </c>
       <c r="G29" s="15">
-        <v>-221</v>
+        <v>-22326</v>
       </c>
       <c r="H29" s="17">
-        <v>550</v>
+        <v>55294</v>
       </c>
       <c r="I29" s="19">
-        <v>323</v>
+        <v>32234</v>
       </c>
       <c r="J29" s="21">
-        <v>226</v>
+        <v>23059</v>
       </c>
       <c r="K29" s="23">
-        <v>100</v>
+        <v>10003</v>
       </c>
       <c r="L29" s="25">
-        <v>97</v>
+        <v>9605</v>
       </c>
       <c r="M29" s="27">
-        <v>3</v>
+        <v>398</v>
       </c>
       <c r="N29" s="29">
-        <v>62</v>
+        <v>6220</v>
       </c>
       <c r="O29" s="31">
-        <v>17</v>
+        <v>1683</v>
       </c>
       <c r="P29" s="33">
-        <v>45</v>
+        <v>4538</v>
       </c>
       <c r="Q29" s="35">
-        <v>97</v>
+        <v>9826</v>
       </c>
       <c r="R29" s="37">
-        <v>52</v>
+        <v>5171</v>
       </c>
       <c r="S29" s="39">
-        <v>46</v>
+        <v>4656</v>
       </c>
       <c r="T29" s="41">
-        <v>4</v>
+        <v>386</v>
       </c>
       <c r="U29" s="43">
+        <v>65</v>
+      </c>
+      <c r="V29" s="45">
+        <v>321</v>
+      </c>
+      <c r="W29" s="47">
+        <v>36</v>
+      </c>
+      <c r="X29" s="49">
         <v>1</v>
       </c>
-      <c r="V29" s="45">
-        <v>3</v>
-      </c>
-      <c r="W29" s="47">
-        <v>0</v>
-      </c>
-      <c r="X29" s="49">
-        <v>0</v>
-      </c>
       <c r="Y29" s="51">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Z29" s="53">
-        <v>193</v>
+        <v>19448</v>
       </c>
       <c r="AA29" s="55">
-        <v>97</v>
+        <v>9680</v>
       </c>
       <c r="AB29" s="57">
-        <v>97</v>
+        <v>9769</v>
       </c>
       <c r="AC29" s="59">
-        <v>93</v>
+        <v>9374</v>
       </c>
       <c r="AD29" s="61">
-        <v>60</v>
+        <v>6031</v>
       </c>
       <c r="AE29" s="63">
-        <v>33</v>
+        <v>3343</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4699,16 +4699,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>18</v>
+        <v>1810</v>
       </c>
       <c r="AJ29" s="73">
-        <v>18</v>
+        <v>1839</v>
       </c>
       <c r="AK29" s="75">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AL29" s="77">
-        <v>1642</v>
+        <v>165081</v>
       </c>
     </row>
     <row r="30">
@@ -4716,94 +4716,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>502</v>
+        <v>47157</v>
       </c>
       <c r="C30" s="7">
-        <v>458</v>
+        <v>43654</v>
       </c>
       <c r="D30" s="9">
-        <v>44</v>
+        <v>3503</v>
       </c>
       <c r="E30" s="11">
-        <v>1255</v>
+        <v>117997</v>
       </c>
       <c r="F30" s="13">
-        <v>1719</v>
+        <v>163075</v>
       </c>
       <c r="G30" s="15">
-        <v>-464</v>
+        <v>-45078</v>
       </c>
       <c r="H30" s="17">
-        <v>668</v>
+        <v>65277</v>
       </c>
       <c r="I30" s="19">
-        <v>214</v>
+        <v>20285</v>
       </c>
       <c r="J30" s="21">
-        <v>454</v>
+        <v>44992</v>
       </c>
       <c r="K30" s="23">
-        <v>86</v>
+        <v>8118</v>
       </c>
       <c r="L30" s="25">
-        <v>66</v>
+        <v>6013</v>
       </c>
       <c r="M30" s="27">
-        <v>20</v>
+        <v>2105</v>
       </c>
       <c r="N30" s="29">
-        <v>44</v>
+        <v>4373</v>
       </c>
       <c r="O30" s="31">
-        <v>4</v>
+        <v>383</v>
       </c>
       <c r="P30" s="33">
-        <v>40</v>
+        <v>3990</v>
       </c>
       <c r="Q30" s="35">
-        <v>115</v>
+        <v>11099</v>
       </c>
       <c r="R30" s="37">
-        <v>27</v>
+        <v>2494</v>
       </c>
       <c r="S30" s="39">
-        <v>88</v>
+        <v>8605</v>
       </c>
       <c r="T30" s="41">
+        <v>568</v>
+      </c>
+      <c r="U30" s="43">
         <v>6</v>
       </c>
-      <c r="U30" s="43">
-        <v>0</v>
-      </c>
       <c r="V30" s="45">
-        <v>6</v>
+        <v>562</v>
       </c>
       <c r="W30" s="47">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="X30" s="49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y30" s="51">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="Z30" s="53">
-        <v>179</v>
+        <v>17609</v>
       </c>
       <c r="AA30" s="55">
-        <v>25</v>
+        <v>2368</v>
       </c>
       <c r="AB30" s="57">
-        <v>154</v>
+        <v>15241</v>
       </c>
       <c r="AC30" s="59">
-        <v>236</v>
+        <v>23415</v>
       </c>
       <c r="AD30" s="61">
-        <v>92</v>
+        <v>8999</v>
       </c>
       <c r="AE30" s="63">
-        <v>144</v>
+        <v>14416</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4815,16 +4815,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>44</v>
+        <v>4076</v>
       </c>
       <c r="AJ30" s="73">
-        <v>78</v>
+        <v>7494</v>
       </c>
       <c r="AK30" s="75">
-        <v>-34</v>
+        <v>-3417</v>
       </c>
       <c r="AL30" s="77">
-        <v>2469</v>
+        <v>234507</v>
       </c>
     </row>
     <row r="31">
@@ -4832,94 +4832,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>243</v>
+        <v>20148</v>
       </c>
       <c r="C31" s="7">
-        <v>113</v>
+        <v>9408</v>
       </c>
       <c r="D31" s="9">
-        <v>130</v>
+        <v>10741</v>
       </c>
       <c r="E31" s="11">
-        <v>580</v>
+        <v>47765</v>
       </c>
       <c r="F31" s="13">
-        <v>545</v>
+        <v>45064</v>
       </c>
       <c r="G31" s="15">
-        <v>35</v>
+        <v>2701</v>
       </c>
       <c r="H31" s="17">
-        <v>116</v>
+        <v>9628</v>
       </c>
       <c r="I31" s="19">
-        <v>281</v>
+        <v>23032</v>
       </c>
       <c r="J31" s="21">
-        <v>-165</v>
+        <v>-13405</v>
       </c>
       <c r="K31" s="23">
-        <v>47</v>
+        <v>3873</v>
       </c>
       <c r="L31" s="25">
-        <v>62</v>
+        <v>5113</v>
       </c>
       <c r="M31" s="27">
-        <v>-15</v>
+        <v>-1240</v>
       </c>
       <c r="N31" s="29">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="O31" s="31">
-        <v>38</v>
+        <v>3035</v>
       </c>
       <c r="P31" s="33">
-        <v>-35</v>
+        <v>-2839</v>
       </c>
       <c r="Q31" s="35">
-        <v>14</v>
+        <v>1210</v>
       </c>
       <c r="R31" s="37">
-        <v>87</v>
+        <v>7124</v>
       </c>
       <c r="S31" s="39">
-        <v>-72</v>
+        <v>-5913</v>
       </c>
       <c r="T31" s="41">
         <v>0</v>
       </c>
       <c r="U31" s="43">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="V31" s="45">
-        <v>-1</v>
+        <v>-75</v>
       </c>
       <c r="W31" s="47">
         <v>0</v>
       </c>
       <c r="X31" s="49">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y31" s="51">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="Z31" s="53">
-        <v>48</v>
+        <v>3996</v>
       </c>
       <c r="AA31" s="55">
-        <v>75</v>
+        <v>6167</v>
       </c>
       <c r="AB31" s="57">
-        <v>-27</v>
+        <v>-2171</v>
       </c>
       <c r="AC31" s="59">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="AD31" s="61">
-        <v>18</v>
+        <v>1497</v>
       </c>
       <c r="AE31" s="63">
-        <v>-14</v>
+        <v>-1144</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4931,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>15</v>
+        <v>1200</v>
       </c>
       <c r="AJ31" s="73">
-        <v>15</v>
+        <v>1236</v>
       </c>
       <c r="AK31" s="75">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="AL31" s="77">
-        <v>954</v>
+        <v>78740</v>
       </c>
     </row>
     <row r="32">
@@ -4948,94 +4948,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>243</v>
+        <v>21646</v>
       </c>
       <c r="C32" s="7">
-        <v>367</v>
+        <v>32559</v>
       </c>
       <c r="D32" s="9">
-        <v>-124</v>
+        <v>-10913</v>
       </c>
       <c r="E32" s="11">
-        <v>489</v>
+        <v>42181</v>
       </c>
       <c r="F32" s="13">
-        <v>355</v>
+        <v>30704</v>
       </c>
       <c r="G32" s="15">
-        <v>134</v>
+        <v>11476</v>
       </c>
       <c r="H32" s="17">
+        <v>16028</v>
+      </c>
+      <c r="I32" s="19">
+        <v>15791</v>
+      </c>
+      <c r="J32" s="21">
+        <v>237</v>
+      </c>
+      <c r="K32" s="23">
+        <v>6330</v>
+      </c>
+      <c r="L32" s="25">
+        <v>6352</v>
+      </c>
+      <c r="M32" s="27">
+        <v>-21</v>
+      </c>
+      <c r="N32" s="29">
         <v>182</v>
       </c>
-      <c r="I32" s="19">
-        <v>183</v>
-      </c>
-      <c r="J32" s="21">
-        <v>-1</v>
-      </c>
-      <c r="K32" s="23">
-        <v>72</v>
-      </c>
-      <c r="L32" s="25">
-        <v>73</v>
-      </c>
-      <c r="M32" s="27">
-        <v>-1</v>
-      </c>
-      <c r="N32" s="29">
-        <v>2</v>
-      </c>
       <c r="O32" s="31">
-        <v>17</v>
+        <v>1463</v>
       </c>
       <c r="P32" s="33">
-        <v>-15</v>
+        <v>-1281</v>
       </c>
       <c r="Q32" s="35">
-        <v>6</v>
+        <v>477</v>
       </c>
       <c r="R32" s="37">
-        <v>23</v>
+        <v>1989</v>
       </c>
       <c r="S32" s="39">
-        <v>-18</v>
+        <v>-1512</v>
       </c>
       <c r="T32" s="41">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="U32" s="43">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="V32" s="45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W32" s="47">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="X32" s="49">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="Y32" s="51">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="Z32" s="53">
-        <v>95</v>
+        <v>8313</v>
       </c>
       <c r="AA32" s="55">
-        <v>47</v>
+        <v>4168</v>
       </c>
       <c r="AB32" s="57">
-        <v>47</v>
+        <v>4146</v>
       </c>
       <c r="AC32" s="59">
-        <v>5</v>
+        <v>430</v>
       </c>
       <c r="AD32" s="61">
-        <v>21</v>
+        <v>1717</v>
       </c>
       <c r="AE32" s="63">
-        <v>-16</v>
+        <v>-1287</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>16</v>
+        <v>1417</v>
       </c>
       <c r="AJ32" s="73">
-        <v>26</v>
+        <v>2217</v>
       </c>
       <c r="AK32" s="75">
-        <v>-10</v>
+        <v>-800</v>
       </c>
       <c r="AL32" s="77">
-        <v>930</v>
+        <v>81272</v>
       </c>
     </row>
     <row r="33">
@@ -5064,94 +5064,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>218</v>
+        <v>20935</v>
       </c>
       <c r="C33" s="7">
-        <v>287</v>
+        <v>27532</v>
       </c>
       <c r="D33" s="9">
-        <v>-70</v>
+        <v>-6596</v>
       </c>
       <c r="E33" s="11">
-        <v>564</v>
+        <v>54026</v>
       </c>
       <c r="F33" s="13">
-        <v>478</v>
+        <v>45990</v>
       </c>
       <c r="G33" s="15">
-        <v>85</v>
+        <v>8036</v>
       </c>
       <c r="H33" s="17">
-        <v>295</v>
+        <v>28434</v>
       </c>
       <c r="I33" s="19">
-        <v>332</v>
+        <v>31915</v>
       </c>
       <c r="J33" s="21">
-        <v>-38</v>
+        <v>-3481</v>
       </c>
       <c r="K33" s="23">
-        <v>75</v>
+        <v>7192</v>
       </c>
       <c r="L33" s="25">
-        <v>67</v>
+        <v>6466</v>
       </c>
       <c r="M33" s="27">
-        <v>7</v>
+        <v>726</v>
       </c>
       <c r="N33" s="29">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O33" s="31">
-        <v>10</v>
+        <v>958</v>
       </c>
       <c r="P33" s="33">
-        <v>-10</v>
+        <v>-925</v>
       </c>
       <c r="Q33" s="35">
-        <v>29</v>
+        <v>2784</v>
       </c>
       <c r="R33" s="37">
-        <v>62</v>
+        <v>6000</v>
       </c>
       <c r="S33" s="39">
-        <v>-33</v>
+        <v>-3216</v>
       </c>
       <c r="T33" s="41">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U33" s="43">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="V33" s="45">
-        <v>-1</v>
+        <v>-130</v>
       </c>
       <c r="W33" s="47">
         <v>0</v>
       </c>
       <c r="X33" s="49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y33" s="51">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="Z33" s="53">
-        <v>180</v>
+        <v>17430</v>
       </c>
       <c r="AA33" s="55">
-        <v>138</v>
+        <v>13300</v>
       </c>
       <c r="AB33" s="57">
-        <v>41</v>
+        <v>4131</v>
       </c>
       <c r="AC33" s="59">
-        <v>11</v>
+        <v>977</v>
       </c>
       <c r="AD33" s="61">
-        <v>53</v>
+        <v>5035</v>
       </c>
       <c r="AE33" s="63">
-        <v>-42</v>
+        <v>-4058</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5163,16 +5163,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>26</v>
+        <v>2415</v>
       </c>
       <c r="AJ33" s="73">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="AK33" s="75">
-        <v>22</v>
+        <v>2042</v>
       </c>
       <c r="AL33" s="77">
-        <v>1102</v>
+        <v>105810</v>
       </c>
     </row>
     <row r="34">
@@ -5180,115 +5180,115 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>393</v>
+        <v>40632</v>
       </c>
       <c r="C34" s="7">
-        <v>257</v>
+        <v>26374</v>
       </c>
       <c r="D34" s="9">
-        <v>135</v>
+        <v>14258</v>
       </c>
       <c r="E34" s="11">
-        <v>732</v>
+        <v>75293</v>
       </c>
       <c r="F34" s="13">
-        <v>907</v>
+        <v>93628</v>
       </c>
       <c r="G34" s="15">
-        <v>-175</v>
+        <v>-18334</v>
       </c>
       <c r="H34" s="17">
-        <v>419</v>
+        <v>43202</v>
       </c>
       <c r="I34" s="19">
-        <v>380</v>
+        <v>39216</v>
       </c>
       <c r="J34" s="21">
-        <v>38</v>
+        <v>3986</v>
       </c>
       <c r="K34" s="23">
+        <v>9359</v>
+      </c>
+      <c r="L34" s="25">
+        <v>12186</v>
+      </c>
+      <c r="M34" s="27">
+        <v>-2827</v>
+      </c>
+      <c r="N34" s="29">
+        <v>1244</v>
+      </c>
+      <c r="O34" s="31">
+        <v>3535</v>
+      </c>
+      <c r="P34" s="33">
+        <v>-2291</v>
+      </c>
+      <c r="Q34" s="35">
+        <v>4575</v>
+      </c>
+      <c r="R34" s="37">
+        <v>5732</v>
+      </c>
+      <c r="S34" s="39">
+        <v>-1157</v>
+      </c>
+      <c r="T34" s="41">
+        <v>0</v>
+      </c>
+      <c r="U34" s="43">
+        <v>0</v>
+      </c>
+      <c r="V34" s="45">
+        <v>0</v>
+      </c>
+      <c r="W34" s="47">
+        <v>69</v>
+      </c>
+      <c r="X34" s="49">
+        <v>1056</v>
+      </c>
+      <c r="Y34" s="51">
+        <v>-987</v>
+      </c>
+      <c r="Z34" s="53">
+        <v>26488</v>
+      </c>
+      <c r="AA34" s="55">
+        <v>10477</v>
+      </c>
+      <c r="AB34" s="57">
+        <v>16012</v>
+      </c>
+      <c r="AC34" s="59">
+        <v>1467</v>
+      </c>
+      <c r="AD34" s="61">
+        <v>6231</v>
+      </c>
+      <c r="AE34" s="63">
+        <v>-4765</v>
+      </c>
+      <c r="AF34" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="71">
+        <v>3310</v>
+      </c>
+      <c r="AJ34" s="73">
+        <v>3219</v>
+      </c>
+      <c r="AK34" s="75">
         <v>91</v>
       </c>
-      <c r="L34" s="25">
-        <v>119</v>
-      </c>
-      <c r="M34" s="27">
-        <v>-28</v>
-      </c>
-      <c r="N34" s="29">
-        <v>12</v>
-      </c>
-      <c r="O34" s="31">
-        <v>35</v>
-      </c>
-      <c r="P34" s="33">
-        <v>-22</v>
-      </c>
-      <c r="Q34" s="35">
-        <v>44</v>
-      </c>
-      <c r="R34" s="37">
-        <v>55</v>
-      </c>
-      <c r="S34" s="39">
-        <v>-12</v>
-      </c>
-      <c r="T34" s="41">
-        <v>0</v>
-      </c>
-      <c r="U34" s="43">
-        <v>0</v>
-      </c>
-      <c r="V34" s="45">
-        <v>0</v>
-      </c>
-      <c r="W34" s="47">
-        <v>1</v>
-      </c>
-      <c r="X34" s="49">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="51">
-        <v>-10</v>
-      </c>
-      <c r="Z34" s="53">
-        <v>258</v>
-      </c>
-      <c r="AA34" s="55">
-        <v>101</v>
-      </c>
-      <c r="AB34" s="57">
-        <v>156</v>
-      </c>
-      <c r="AC34" s="59">
-        <v>14</v>
-      </c>
-      <c r="AD34" s="61">
-        <v>60</v>
-      </c>
-      <c r="AE34" s="63">
-        <v>-46</v>
-      </c>
-      <c r="AF34" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="71">
-        <v>32</v>
-      </c>
-      <c r="AJ34" s="73">
-        <v>31</v>
-      </c>
-      <c r="AK34" s="75">
-        <v>1</v>
-      </c>
       <c r="AL34" s="77">
-        <v>1576</v>
+        <v>162438</v>
       </c>
     </row>
     <row r="35">
@@ -5296,94 +5296,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>462</v>
+        <v>47168</v>
       </c>
       <c r="C35" s="7">
-        <v>521</v>
+        <v>53032</v>
       </c>
       <c r="D35" s="9">
-        <v>-59</v>
+        <v>-5865</v>
       </c>
       <c r="E35" s="11">
-        <v>770</v>
+        <v>77982</v>
       </c>
       <c r="F35" s="13">
-        <v>978</v>
+        <v>99470</v>
       </c>
       <c r="G35" s="15">
-        <v>-209</v>
+        <v>-21488</v>
       </c>
       <c r="H35" s="17">
-        <v>682</v>
+        <v>69156</v>
       </c>
       <c r="I35" s="19">
-        <v>402</v>
+        <v>40595</v>
       </c>
       <c r="J35" s="21">
-        <v>280</v>
+        <v>28561</v>
       </c>
       <c r="K35" s="23">
-        <v>56</v>
+        <v>5607</v>
       </c>
       <c r="L35" s="25">
-        <v>77</v>
+        <v>7737</v>
       </c>
       <c r="M35" s="27">
-        <v>-21</v>
+        <v>-2130</v>
       </c>
       <c r="N35" s="29">
-        <v>90</v>
+        <v>9152</v>
       </c>
       <c r="O35" s="31">
-        <v>29</v>
+        <v>2864</v>
       </c>
       <c r="P35" s="33">
-        <v>62</v>
+        <v>6288</v>
       </c>
       <c r="Q35" s="35">
-        <v>218</v>
+        <v>22147</v>
       </c>
       <c r="R35" s="37">
-        <v>68</v>
+        <v>6835</v>
       </c>
       <c r="S35" s="39">
-        <v>151</v>
+        <v>15311</v>
       </c>
       <c r="T35" s="41">
         <v>0</v>
       </c>
       <c r="U35" s="43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V35" s="45">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="W35" s="47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X35" s="49">
-        <v>3</v>
+        <v>349</v>
       </c>
       <c r="Y35" s="51">
-        <v>-3</v>
+        <v>-329</v>
       </c>
       <c r="Z35" s="53">
-        <v>272</v>
+        <v>27662</v>
       </c>
       <c r="AA35" s="55">
-        <v>92</v>
+        <v>9255</v>
       </c>
       <c r="AB35" s="57">
-        <v>180</v>
+        <v>18406</v>
       </c>
       <c r="AC35" s="59">
-        <v>45</v>
+        <v>4569</v>
       </c>
       <c r="AD35" s="61">
-        <v>133</v>
+        <v>13544</v>
       </c>
       <c r="AE35" s="63">
-        <v>-88</v>
+        <v>-8975</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5395,16 +5395,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>11</v>
+        <v>1084</v>
       </c>
       <c r="AJ35" s="73">
-        <v>23</v>
+        <v>2292</v>
       </c>
       <c r="AK35" s="75">
-        <v>-12</v>
+        <v>-1208</v>
       </c>
       <c r="AL35" s="77">
-        <v>1924</v>
+        <v>195389</v>
       </c>
     </row>
     <row r="36">
@@ -5412,94 +5412,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>794</v>
+        <v>76430</v>
       </c>
       <c r="C36" s="7">
-        <v>455</v>
+        <v>42736</v>
       </c>
       <c r="D36" s="9">
-        <v>339</v>
+        <v>33695</v>
       </c>
       <c r="E36" s="11">
-        <v>1038</v>
+        <v>96764</v>
       </c>
       <c r="F36" s="13">
-        <v>1484</v>
+        <v>140938</v>
       </c>
       <c r="G36" s="15">
-        <v>-446</v>
+        <v>-44174</v>
       </c>
       <c r="H36" s="17">
-        <v>395</v>
+        <v>37510</v>
       </c>
       <c r="I36" s="19">
-        <v>285</v>
+        <v>26745</v>
       </c>
       <c r="J36" s="21">
-        <v>110</v>
+        <v>10765</v>
       </c>
       <c r="K36" s="23">
-        <v>24</v>
+        <v>2306</v>
       </c>
       <c r="L36" s="25">
-        <v>41</v>
+        <v>3856</v>
       </c>
       <c r="M36" s="27">
-        <v>-17</v>
+        <v>-1550</v>
       </c>
       <c r="N36" s="29">
-        <v>52</v>
+        <v>5020</v>
       </c>
       <c r="O36" s="31">
-        <v>15</v>
+        <v>1377</v>
       </c>
       <c r="P36" s="33">
-        <v>37</v>
+        <v>3643</v>
       </c>
       <c r="Q36" s="35">
-        <v>94</v>
+        <v>9082</v>
       </c>
       <c r="R36" s="37">
-        <v>62</v>
+        <v>5840</v>
       </c>
       <c r="S36" s="39">
-        <v>32</v>
+        <v>3243</v>
       </c>
       <c r="T36" s="41">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U36" s="43">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V36" s="45">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="W36" s="47">
+        <v>197</v>
+      </c>
+      <c r="X36" s="49">
         <v>2</v>
       </c>
-      <c r="X36" s="49">
-        <v>0</v>
-      </c>
       <c r="Y36" s="51">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="Z36" s="53">
-        <v>104</v>
+        <v>9507</v>
       </c>
       <c r="AA36" s="55">
-        <v>97</v>
+        <v>8828</v>
       </c>
       <c r="AB36" s="57">
-        <v>7</v>
+        <v>679</v>
       </c>
       <c r="AC36" s="59">
-        <v>119</v>
+        <v>11381</v>
       </c>
       <c r="AD36" s="61">
-        <v>69</v>
+        <v>6808</v>
       </c>
       <c r="AE36" s="63">
-        <v>50</v>
+        <v>4573</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5511,16 +5511,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>23</v>
+        <v>2145</v>
       </c>
       <c r="AJ36" s="73">
-        <v>26</v>
+        <v>2431</v>
       </c>
       <c r="AK36" s="75">
-        <v>-3</v>
+        <v>-286</v>
       </c>
       <c r="AL36" s="77">
-        <v>2250</v>
+        <v>212850</v>
       </c>
     </row>
     <row r="37">
@@ -5528,94 +5528,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>334</v>
+        <v>28578</v>
       </c>
       <c r="C37" s="7">
-        <v>166</v>
+        <v>13986</v>
       </c>
       <c r="D37" s="9">
-        <v>167</v>
+        <v>14592</v>
       </c>
       <c r="E37" s="11">
-        <v>1084</v>
+        <v>92977</v>
       </c>
       <c r="F37" s="13">
-        <v>1223</v>
+        <v>106147</v>
       </c>
       <c r="G37" s="15">
-        <v>-139</v>
+        <v>-13170</v>
       </c>
       <c r="H37" s="17">
-        <v>223</v>
+        <v>19673</v>
       </c>
       <c r="I37" s="19">
-        <v>254</v>
+        <v>21400</v>
       </c>
       <c r="J37" s="21">
-        <v>-32</v>
+        <v>-1727</v>
       </c>
       <c r="K37" s="23">
-        <v>17</v>
+        <v>1492</v>
       </c>
       <c r="L37" s="25">
-        <v>35</v>
+        <v>3036</v>
       </c>
       <c r="M37" s="27">
-        <v>-17</v>
+        <v>-1544</v>
       </c>
       <c r="N37" s="29">
-        <v>12</v>
+        <v>1077</v>
       </c>
       <c r="O37" s="31">
-        <v>22</v>
+        <v>1860</v>
       </c>
       <c r="P37" s="33">
-        <v>-10</v>
+        <v>-783</v>
       </c>
       <c r="Q37" s="35">
-        <v>38</v>
+        <v>3313</v>
       </c>
       <c r="R37" s="37">
-        <v>31</v>
+        <v>2673</v>
       </c>
       <c r="S37" s="39">
-        <v>7</v>
+        <v>640</v>
       </c>
       <c r="T37" s="41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U37" s="43">
         <v>0</v>
       </c>
       <c r="V37" s="45">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W37" s="47">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="X37" s="49">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="Y37" s="51">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="Z37" s="53">
-        <v>11</v>
+        <v>965</v>
       </c>
       <c r="AA37" s="55">
-        <v>110</v>
+        <v>9234</v>
       </c>
       <c r="AB37" s="57">
-        <v>-99</v>
+        <v>-8269</v>
       </c>
       <c r="AC37" s="59">
-        <v>140</v>
+        <v>12491</v>
       </c>
       <c r="AD37" s="61">
-        <v>54</v>
+        <v>4437</v>
       </c>
       <c r="AE37" s="63">
-        <v>86</v>
+        <v>8054</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5627,16 +5627,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>23</v>
+        <v>1962</v>
       </c>
       <c r="AJ37" s="73">
-        <v>20</v>
+        <v>1656</v>
       </c>
       <c r="AK37" s="75">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="AL37" s="77">
-        <v>1663</v>
+        <v>143190</v>
       </c>
     </row>
     <row r="38">
@@ -5644,94 +5644,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>209</v>
+        <v>17712</v>
       </c>
       <c r="C38" s="7">
-        <v>177</v>
+        <v>14994</v>
       </c>
       <c r="D38" s="9">
-        <v>32</v>
+        <v>2717</v>
       </c>
       <c r="E38" s="11">
-        <v>893</v>
+        <v>76530</v>
       </c>
       <c r="F38" s="13">
-        <v>943</v>
+        <v>80955</v>
       </c>
       <c r="G38" s="15">
-        <v>-51</v>
+        <v>-4424</v>
       </c>
       <c r="H38" s="17">
-        <v>108</v>
+        <v>9386</v>
       </c>
       <c r="I38" s="19">
-        <v>73</v>
+        <v>6224</v>
       </c>
       <c r="J38" s="21">
-        <v>35</v>
+        <v>3162</v>
       </c>
       <c r="K38" s="23">
-        <v>7</v>
+        <v>588</v>
       </c>
       <c r="L38" s="25">
-        <v>11</v>
+        <v>969</v>
       </c>
       <c r="M38" s="27">
-        <v>-5</v>
+        <v>-381</v>
       </c>
       <c r="N38" s="29">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="O38" s="31">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="P38" s="33">
-        <v>-2</v>
+        <v>-208</v>
       </c>
       <c r="Q38" s="35">
-        <v>18</v>
+        <v>1517</v>
       </c>
       <c r="R38" s="37">
-        <v>25</v>
+        <v>2141</v>
       </c>
       <c r="S38" s="39">
-        <v>-7</v>
+        <v>-624</v>
       </c>
       <c r="T38" s="41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U38" s="43">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="V38" s="45">
-        <v>-1</v>
+        <v>-90</v>
       </c>
       <c r="W38" s="47">
         <v>0</v>
       </c>
       <c r="X38" s="49">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="Y38" s="51">
-        <v>-1</v>
+        <v>-98</v>
       </c>
       <c r="Z38" s="53">
-        <v>75</v>
+        <v>6536</v>
       </c>
       <c r="AA38" s="55">
-        <v>9</v>
+        <v>742</v>
       </c>
       <c r="AB38" s="57">
-        <v>66</v>
+        <v>5794</v>
       </c>
       <c r="AC38" s="59">
-        <v>8</v>
+        <v>674</v>
       </c>
       <c r="AD38" s="61">
-        <v>22</v>
+        <v>1905</v>
       </c>
       <c r="AE38" s="63">
-        <v>-14</v>
+        <v>-1231</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5743,16 +5743,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>8</v>
+        <v>691</v>
       </c>
       <c r="AJ38" s="73">
-        <v>25</v>
+        <v>2146</v>
       </c>
       <c r="AK38" s="75">
-        <v>-17</v>
+        <v>-1455</v>
       </c>
       <c r="AL38" s="77">
-        <v>1218</v>
+        <v>104319</v>
       </c>
     </row>
     <row r="39">
@@ -5760,94 +5760,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>360</v>
+        <v>30838</v>
       </c>
       <c r="C39" s="7">
-        <v>225</v>
+        <v>19069</v>
       </c>
       <c r="D39" s="9">
-        <v>135</v>
+        <v>11769</v>
       </c>
       <c r="E39" s="11">
-        <v>1344</v>
+        <v>114693</v>
       </c>
       <c r="F39" s="13">
-        <v>1601</v>
+        <v>137040</v>
       </c>
       <c r="G39" s="15">
-        <v>-257</v>
+        <v>-22347</v>
       </c>
       <c r="H39" s="17">
-        <v>263</v>
+        <v>22609</v>
       </c>
       <c r="I39" s="19">
-        <v>151</v>
+        <v>12799</v>
       </c>
       <c r="J39" s="21">
-        <v>112</v>
+        <v>9809</v>
       </c>
       <c r="K39" s="23">
-        <v>31</v>
+        <v>2728</v>
       </c>
       <c r="L39" s="25">
-        <v>27</v>
+        <v>2273</v>
       </c>
       <c r="M39" s="27">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="N39" s="29">
-        <v>23</v>
+        <v>2016</v>
       </c>
       <c r="O39" s="31">
-        <v>8</v>
+        <v>644</v>
       </c>
       <c r="P39" s="33">
-        <v>16</v>
+        <v>1372</v>
       </c>
       <c r="Q39" s="35">
-        <v>61</v>
+        <v>5215</v>
       </c>
       <c r="R39" s="37">
-        <v>27</v>
+        <v>2298</v>
       </c>
       <c r="S39" s="39">
-        <v>34</v>
+        <v>2917</v>
       </c>
       <c r="T39" s="41">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="U39" s="43">
         <v>0</v>
       </c>
       <c r="V39" s="45">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="W39" s="47">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="X39" s="49">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="Y39" s="51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z39" s="53">
-        <v>89</v>
+        <v>7614</v>
       </c>
       <c r="AA39" s="55">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="AB39" s="57">
-        <v>84</v>
+        <v>7251</v>
       </c>
       <c r="AC39" s="59">
-        <v>57</v>
+        <v>4806</v>
       </c>
       <c r="AD39" s="61">
-        <v>84</v>
+        <v>7081</v>
       </c>
       <c r="AE39" s="63">
-        <v>-27</v>
+        <v>-2276</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5859,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>25</v>
+        <v>2042</v>
       </c>
       <c r="AJ39" s="73">
-        <v>15</v>
+        <v>1274</v>
       </c>
       <c r="AK39" s="75">
-        <v>10</v>
+        <v>769</v>
       </c>
       <c r="AL39" s="77">
-        <v>1992</v>
+        <v>170182</v>
       </c>
     </row>
     <row r="40">
@@ -5876,94 +5876,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>513</v>
+        <v>45831</v>
       </c>
       <c r="C40" s="7">
-        <v>486</v>
+        <v>42795</v>
       </c>
       <c r="D40" s="9">
-        <v>27</v>
+        <v>3036</v>
       </c>
       <c r="E40" s="11">
-        <v>2622</v>
+        <v>229816</v>
       </c>
       <c r="F40" s="13">
-        <v>2613</v>
+        <v>230732</v>
       </c>
       <c r="G40" s="15">
-        <v>9</v>
+        <v>-916</v>
       </c>
       <c r="H40" s="17">
-        <v>409</v>
+        <v>36723</v>
       </c>
       <c r="I40" s="19">
-        <v>436</v>
+        <v>37985</v>
       </c>
       <c r="J40" s="21">
-        <v>-28</v>
+        <v>-1262</v>
       </c>
       <c r="K40" s="23">
-        <v>47</v>
+        <v>4139</v>
       </c>
       <c r="L40" s="25">
-        <v>33</v>
+        <v>2867</v>
       </c>
       <c r="M40" s="27">
-        <v>14</v>
+        <v>1272</v>
       </c>
       <c r="N40" s="29">
-        <v>60</v>
+        <v>5487</v>
       </c>
       <c r="O40" s="31">
+        <v>5788</v>
+      </c>
+      <c r="P40" s="33">
+        <v>-301</v>
+      </c>
+      <c r="Q40" s="35">
+        <v>5794</v>
+      </c>
+      <c r="R40" s="37">
+        <v>8948</v>
+      </c>
+      <c r="S40" s="39">
+        <v>-3154</v>
+      </c>
+      <c r="T40" s="41">
         <v>67</v>
       </c>
-      <c r="P40" s="33">
-        <v>-7</v>
-      </c>
-      <c r="Q40" s="35">
-        <v>65</v>
-      </c>
-      <c r="R40" s="37">
-        <v>103</v>
-      </c>
-      <c r="S40" s="39">
-        <v>-39</v>
-      </c>
-      <c r="T40" s="41">
-        <v>1</v>
-      </c>
       <c r="U40" s="43">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="V40" s="45">
-        <v>-1</v>
+        <v>-120</v>
       </c>
       <c r="W40" s="47">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X40" s="49">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="51">
-        <v>-1</v>
+        <v>-94</v>
       </c>
       <c r="Z40" s="53">
-        <v>80</v>
+        <v>7059</v>
       </c>
       <c r="AA40" s="55">
-        <v>80</v>
+        <v>7039</v>
       </c>
       <c r="AB40" s="57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC40" s="59">
-        <v>155</v>
+        <v>14133</v>
       </c>
       <c r="AD40" s="61">
-        <v>149</v>
+        <v>13020</v>
       </c>
       <c r="AE40" s="63">
-        <v>6</v>
+        <v>1113</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -5975,16 +5975,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>50</v>
+        <v>4351</v>
       </c>
       <c r="AJ40" s="73">
-        <v>59</v>
+        <v>5209</v>
       </c>
       <c r="AK40" s="75">
-        <v>-8</v>
+        <v>-858</v>
       </c>
       <c r="AL40" s="77">
-        <v>3594</v>
+        <v>316721</v>
       </c>
     </row>
     <row r="41">
@@ -5992,94 +5992,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>693</v>
+        <v>54713</v>
       </c>
       <c r="C41" s="7">
-        <v>512</v>
+        <v>40489</v>
       </c>
       <c r="D41" s="9">
-        <v>182</v>
+        <v>14224</v>
       </c>
       <c r="E41" s="11">
-        <v>1171</v>
+        <v>92988</v>
       </c>
       <c r="F41" s="13">
-        <v>1348</v>
+        <v>106931</v>
       </c>
       <c r="G41" s="15">
-        <v>-177</v>
+        <v>-13942</v>
       </c>
       <c r="H41" s="17">
-        <v>191</v>
+        <v>15205</v>
       </c>
       <c r="I41" s="19">
-        <v>192</v>
+        <v>15197</v>
       </c>
       <c r="J41" s="21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K41" s="23">
-        <v>16</v>
+        <v>1308</v>
       </c>
       <c r="L41" s="25">
-        <v>39</v>
+        <v>3085</v>
       </c>
       <c r="M41" s="27">
-        <v>-22</v>
+        <v>-1776</v>
       </c>
       <c r="N41" s="29">
-        <v>27</v>
+        <v>2121</v>
       </c>
       <c r="O41" s="31">
-        <v>7</v>
+        <v>518</v>
       </c>
       <c r="P41" s="33">
-        <v>20</v>
+        <v>1603</v>
       </c>
       <c r="Q41" s="35">
-        <v>24</v>
+        <v>1897</v>
       </c>
       <c r="R41" s="37">
-        <v>36</v>
+        <v>2940</v>
       </c>
       <c r="S41" s="39">
-        <v>-12</v>
+        <v>-1043</v>
       </c>
       <c r="T41" s="41">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="U41" s="43">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="V41" s="45">
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="W41" s="47">
         <v>0</v>
       </c>
       <c r="X41" s="49">
-        <v>8</v>
+        <v>684</v>
       </c>
       <c r="Y41" s="51">
-        <v>-8</v>
+        <v>-684</v>
       </c>
       <c r="Z41" s="53">
-        <v>41</v>
+        <v>3258</v>
       </c>
       <c r="AA41" s="55">
-        <v>59</v>
+        <v>4603</v>
       </c>
       <c r="AB41" s="57">
-        <v>-18</v>
+        <v>-1344</v>
       </c>
       <c r="AC41" s="59">
-        <v>82</v>
+        <v>6563</v>
       </c>
       <c r="AD41" s="61">
-        <v>42</v>
+        <v>3271</v>
       </c>
       <c r="AE41" s="63">
-        <v>40</v>
+        <v>3292</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6091,16 +6091,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>15</v>
+        <v>1206</v>
       </c>
       <c r="AJ41" s="73">
-        <v>19</v>
+        <v>1496</v>
       </c>
       <c r="AK41" s="75">
-        <v>-3</v>
+        <v>-289</v>
       </c>
       <c r="AL41" s="77">
-        <v>2071</v>
+        <v>164113</v>
       </c>
     </row>
     <row r="42">
@@ -6108,94 +6108,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>874</v>
+        <v>71937</v>
       </c>
       <c r="C42" s="7">
-        <v>372</v>
+        <v>30563</v>
       </c>
       <c r="D42" s="9">
-        <v>502</v>
+        <v>41374</v>
       </c>
       <c r="E42" s="11">
-        <v>1839</v>
+        <v>150866</v>
       </c>
       <c r="F42" s="13">
-        <v>1863</v>
+        <v>153325</v>
       </c>
       <c r="G42" s="15">
-        <v>-25</v>
+        <v>-2459</v>
       </c>
       <c r="H42" s="17">
-        <v>217</v>
+        <v>17802</v>
       </c>
       <c r="I42" s="19">
-        <v>697</v>
+        <v>56819</v>
       </c>
       <c r="J42" s="21">
-        <v>-480</v>
+        <v>-39017</v>
       </c>
       <c r="K42" s="23">
-        <v>31</v>
+        <v>2608</v>
       </c>
       <c r="L42" s="25">
-        <v>275</v>
+        <v>22309</v>
       </c>
       <c r="M42" s="27">
-        <v>-244</v>
+        <v>-19701</v>
       </c>
       <c r="N42" s="29">
-        <v>10</v>
+        <v>801</v>
       </c>
       <c r="O42" s="31">
-        <v>16</v>
+        <v>1344</v>
       </c>
       <c r="P42" s="33">
-        <v>-7</v>
+        <v>-543</v>
       </c>
       <c r="Q42" s="35">
-        <v>28</v>
+        <v>2312</v>
       </c>
       <c r="R42" s="37">
-        <v>163</v>
+        <v>13413</v>
       </c>
       <c r="S42" s="39">
-        <v>-135</v>
+        <v>-11101</v>
       </c>
       <c r="T42" s="41">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="U42" s="43">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="V42" s="45">
-        <v>-1</v>
+        <v>-103</v>
       </c>
       <c r="W42" s="47">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X42" s="49">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="Y42" s="51">
-        <v>-5</v>
+        <v>-367</v>
       </c>
       <c r="Z42" s="53">
-        <v>72</v>
+        <v>5920</v>
       </c>
       <c r="AA42" s="55">
-        <v>56</v>
+        <v>4525</v>
       </c>
       <c r="AB42" s="57">
-        <v>16</v>
+        <v>1395</v>
       </c>
       <c r="AC42" s="59">
-        <v>75</v>
+        <v>6098</v>
       </c>
       <c r="AD42" s="61">
-        <v>180</v>
+        <v>14695</v>
       </c>
       <c r="AE42" s="63">
-        <v>-105</v>
+        <v>-8597</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6207,16 +6207,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>43</v>
+        <v>3461</v>
       </c>
       <c r="AJ42" s="73">
-        <v>41</v>
+        <v>3359</v>
       </c>
       <c r="AK42" s="75">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="AL42" s="77">
-        <v>2972</v>
+        <v>244066</v>
       </c>
     </row>
     <row r="43">
@@ -6224,94 +6224,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
+        <v>28442</v>
+      </c>
+      <c r="C43" s="7">
+        <v>14665</v>
+      </c>
+      <c r="D43" s="9">
+        <v>13777</v>
+      </c>
+      <c r="E43" s="11">
+        <v>209383</v>
+      </c>
+      <c r="F43" s="13">
+        <v>220037</v>
+      </c>
+      <c r="G43" s="15">
+        <v>-10653</v>
+      </c>
+      <c r="H43" s="17">
+        <v>29060</v>
+      </c>
+      <c r="I43" s="19">
+        <v>29788</v>
+      </c>
+      <c r="J43" s="21">
+        <v>-728</v>
+      </c>
+      <c r="K43" s="23">
+        <v>4359</v>
+      </c>
+      <c r="L43" s="25">
+        <v>4840</v>
+      </c>
+      <c r="M43" s="27">
+        <v>-481</v>
+      </c>
+      <c r="N43" s="29">
+        <v>1365</v>
+      </c>
+      <c r="O43" s="31">
+        <v>2516</v>
+      </c>
+      <c r="P43" s="33">
+        <v>-1151</v>
+      </c>
+      <c r="Q43" s="35">
+        <v>8480</v>
+      </c>
+      <c r="R43" s="37">
+        <v>5693</v>
+      </c>
+      <c r="S43" s="39">
+        <v>2787</v>
+      </c>
+      <c r="T43" s="41">
+        <v>340</v>
+      </c>
+      <c r="U43" s="43">
+        <v>35</v>
+      </c>
+      <c r="V43" s="45">
+        <v>304</v>
+      </c>
+      <c r="W43" s="47">
+        <v>1172</v>
+      </c>
+      <c r="X43" s="49">
+        <v>770</v>
+      </c>
+      <c r="Y43" s="51">
         <v>402</v>
       </c>
-      <c r="C43" s="7">
-        <v>214</v>
-      </c>
-      <c r="D43" s="9">
-        <v>188</v>
-      </c>
-      <c r="E43" s="11">
-        <v>3175</v>
-      </c>
-      <c r="F43" s="13">
-        <v>3316</v>
-      </c>
-      <c r="G43" s="15">
-        <v>-141</v>
-      </c>
-      <c r="H43" s="17">
-        <v>452</v>
-      </c>
-      <c r="I43" s="19">
-        <v>463</v>
-      </c>
-      <c r="J43" s="21">
-        <v>-10</v>
-      </c>
-      <c r="K43" s="23">
-        <v>67</v>
-      </c>
-      <c r="L43" s="25">
-        <v>74</v>
-      </c>
-      <c r="M43" s="27">
-        <v>-7</v>
-      </c>
-      <c r="N43" s="29">
-        <v>22</v>
-      </c>
-      <c r="O43" s="31">
-        <v>37</v>
-      </c>
-      <c r="P43" s="33">
-        <v>-15</v>
-      </c>
-      <c r="Q43" s="35">
-        <v>130</v>
-      </c>
-      <c r="R43" s="37">
-        <v>84</v>
-      </c>
-      <c r="S43" s="39">
-        <v>47</v>
-      </c>
-      <c r="T43" s="41">
-        <v>5</v>
-      </c>
-      <c r="U43" s="43">
-        <v>1</v>
-      </c>
-      <c r="V43" s="45">
-        <v>5</v>
-      </c>
-      <c r="W43" s="47">
-        <v>20</v>
-      </c>
-      <c r="X43" s="49">
-        <v>13</v>
-      </c>
-      <c r="Y43" s="51">
-        <v>7</v>
-      </c>
       <c r="Z43" s="53">
-        <v>121</v>
+        <v>7955</v>
       </c>
       <c r="AA43" s="55">
-        <v>61</v>
+        <v>4255</v>
       </c>
       <c r="AB43" s="57">
-        <v>60</v>
+        <v>3701</v>
       </c>
       <c r="AC43" s="59">
-        <v>87</v>
+        <v>5389</v>
       </c>
       <c r="AD43" s="61">
-        <v>194</v>
+        <v>11680</v>
       </c>
       <c r="AE43" s="63">
-        <v>-107</v>
+        <v>-6291</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6323,16 +6323,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>76</v>
+        <v>4487</v>
       </c>
       <c r="AJ43" s="73">
-        <v>113</v>
+        <v>6883</v>
       </c>
       <c r="AK43" s="75">
-        <v>-36</v>
+        <v>-2395</v>
       </c>
       <c r="AL43" s="77">
-        <v>4106</v>
+        <v>271373</v>
       </c>
     </row>
     <row r="44">
@@ -6340,94 +6340,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>827</v>
+        <v>54201</v>
       </c>
       <c r="C44" s="7">
-        <v>1017</v>
+        <v>63425</v>
       </c>
       <c r="D44" s="9">
-        <v>-190</v>
+        <v>-9224</v>
       </c>
       <c r="E44" s="11">
-        <v>5435</v>
+        <v>322128</v>
       </c>
       <c r="F44" s="13">
-        <v>5242</v>
+        <v>309189</v>
       </c>
       <c r="G44" s="15">
-        <v>193</v>
+        <v>12939</v>
       </c>
       <c r="H44" s="17">
-        <v>1201</v>
+        <v>75112</v>
       </c>
       <c r="I44" s="19">
-        <v>1344</v>
+        <v>87334</v>
       </c>
       <c r="J44" s="21">
-        <v>-143</v>
+        <v>-12222</v>
       </c>
       <c r="K44" s="23">
-        <v>122</v>
+        <v>7723</v>
       </c>
       <c r="L44" s="25">
-        <v>146</v>
+        <v>8935</v>
       </c>
       <c r="M44" s="27">
-        <v>-23</v>
+        <v>-1212</v>
       </c>
       <c r="N44" s="29">
-        <v>54</v>
+        <v>3468</v>
       </c>
       <c r="O44" s="31">
-        <v>45</v>
+        <v>2813</v>
       </c>
       <c r="P44" s="33">
-        <v>10</v>
+        <v>655</v>
       </c>
       <c r="Q44" s="35">
-        <v>246</v>
+        <v>15091</v>
       </c>
       <c r="R44" s="37">
-        <v>255</v>
+        <v>16587</v>
       </c>
       <c r="S44" s="39">
-        <v>-10</v>
+        <v>-1496</v>
       </c>
       <c r="T44" s="41">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="U44" s="43">
-        <v>9</v>
+        <v>555</v>
       </c>
       <c r="V44" s="45">
-        <v>-4</v>
+        <v>-231</v>
       </c>
       <c r="W44" s="47">
-        <v>12</v>
+        <v>681</v>
       </c>
       <c r="X44" s="49">
-        <v>21</v>
+        <v>1340</v>
       </c>
       <c r="Y44" s="51">
-        <v>-9</v>
+        <v>-659</v>
       </c>
       <c r="Z44" s="53">
-        <v>394</v>
+        <v>24815</v>
       </c>
       <c r="AA44" s="55">
-        <v>134</v>
+        <v>7821</v>
       </c>
       <c r="AB44" s="57">
-        <v>260</v>
+        <v>16994</v>
       </c>
       <c r="AC44" s="59">
-        <v>367</v>
+        <v>23009</v>
       </c>
       <c r="AD44" s="61">
-        <v>734</v>
+        <v>49283</v>
       </c>
       <c r="AE44" s="63">
-        <v>-367</v>
+        <v>-26273</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6439,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>225</v>
+        <v>13506</v>
       </c>
       <c r="AJ44" s="73">
-        <v>84</v>
+        <v>4998</v>
       </c>
       <c r="AK44" s="75">
-        <v>140</v>
+        <v>8507</v>
       </c>
       <c r="AL44" s="77">
-        <v>7688</v>
+        <v>464947</v>
       </c>
     </row>
     <row r="45">
@@ -6456,94 +6456,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>525</v>
+        <v>51492</v>
       </c>
       <c r="C45" s="7">
-        <v>437</v>
+        <v>41744</v>
       </c>
       <c r="D45" s="9">
-        <v>88</v>
+        <v>9748</v>
       </c>
       <c r="E45" s="11">
-        <v>1377</v>
+        <v>134613</v>
       </c>
       <c r="F45" s="13">
-        <v>1363</v>
+        <v>134848</v>
       </c>
       <c r="G45" s="15">
-        <v>14</v>
+        <v>-235</v>
       </c>
       <c r="H45" s="17">
-        <v>648</v>
+        <v>64216</v>
       </c>
       <c r="I45" s="19">
-        <v>737</v>
+        <v>72407</v>
       </c>
       <c r="J45" s="21">
-        <v>-90</v>
+        <v>-8191</v>
       </c>
       <c r="K45" s="23">
-        <v>69</v>
+        <v>6978</v>
       </c>
       <c r="L45" s="25">
-        <v>90</v>
+        <v>8440</v>
       </c>
       <c r="M45" s="27">
-        <v>-21</v>
+        <v>-1461</v>
       </c>
       <c r="N45" s="29">
-        <v>36</v>
+        <v>3695</v>
       </c>
       <c r="O45" s="31">
-        <v>31</v>
+        <v>2995</v>
       </c>
       <c r="P45" s="33">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="Q45" s="35">
-        <v>117</v>
+        <v>11891</v>
       </c>
       <c r="R45" s="37">
-        <v>163</v>
+        <v>15660</v>
       </c>
       <c r="S45" s="39">
-        <v>-46</v>
+        <v>-3769</v>
       </c>
       <c r="T45" s="41">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="U45" s="43">
-        <v>6</v>
+        <v>578</v>
       </c>
       <c r="V45" s="45">
-        <v>-4</v>
+        <v>-366</v>
       </c>
       <c r="W45" s="47">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="X45" s="49">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="Y45" s="51">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="Z45" s="53">
-        <v>138</v>
+        <v>13681</v>
       </c>
       <c r="AA45" s="55">
-        <v>130</v>
+        <v>13358</v>
       </c>
       <c r="AB45" s="57">
-        <v>8</v>
+        <v>323</v>
       </c>
       <c r="AC45" s="59">
-        <v>284</v>
+        <v>27710</v>
       </c>
       <c r="AD45" s="61">
-        <v>318</v>
+        <v>31316</v>
       </c>
       <c r="AE45" s="63">
-        <v>-33</v>
+        <v>-3606</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>50</v>
+        <v>4984</v>
       </c>
       <c r="AJ45" s="73">
-        <v>62</v>
+        <v>6306</v>
       </c>
       <c r="AK45" s="75">
-        <v>-12</v>
+        <v>-1322</v>
       </c>
       <c r="AL45" s="77">
-        <v>2599</v>
+        <v>255305</v>
       </c>
     </row>
     <row r="46">
@@ -6572,94 +6572,94 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>306</v>
+        <v>30555</v>
       </c>
       <c r="C46" s="7">
-        <v>108</v>
+        <v>10952</v>
       </c>
       <c r="D46" s="9">
-        <v>199</v>
+        <v>19603</v>
       </c>
       <c r="E46" s="11">
-        <v>863</v>
+        <v>86032</v>
       </c>
       <c r="F46" s="13">
-        <v>1093</v>
+        <v>108761</v>
       </c>
       <c r="G46" s="15">
-        <v>-230</v>
+        <v>-22729</v>
       </c>
       <c r="H46" s="17">
-        <v>379</v>
+        <v>38079</v>
       </c>
       <c r="I46" s="19">
-        <v>339</v>
+        <v>33857</v>
       </c>
       <c r="J46" s="21">
-        <v>40</v>
+        <v>4222</v>
       </c>
       <c r="K46" s="23">
-        <v>36</v>
+        <v>3660</v>
       </c>
       <c r="L46" s="25">
-        <v>49</v>
+        <v>5068</v>
       </c>
       <c r="M46" s="27">
-        <v>-13</v>
+        <v>-1407</v>
       </c>
       <c r="N46" s="29">
-        <v>21</v>
+        <v>2080</v>
       </c>
       <c r="O46" s="31">
-        <v>11</v>
+        <v>1149</v>
       </c>
       <c r="P46" s="33">
-        <v>9</v>
+        <v>931</v>
       </c>
       <c r="Q46" s="35">
-        <v>97</v>
+        <v>9777</v>
       </c>
       <c r="R46" s="37">
-        <v>35</v>
+        <v>3449</v>
       </c>
       <c r="S46" s="39">
-        <v>62</v>
+        <v>6328</v>
       </c>
       <c r="T46" s="41">
-        <v>7</v>
+        <v>697</v>
       </c>
       <c r="U46" s="43">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="V46" s="45">
-        <v>3</v>
+        <v>363</v>
       </c>
       <c r="W46" s="47">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="X46" s="49">
-        <v>4</v>
+        <v>335</v>
       </c>
       <c r="Y46" s="51">
-        <v>-3</v>
+        <v>-262</v>
       </c>
       <c r="Z46" s="53">
-        <v>66</v>
+        <v>6728</v>
       </c>
       <c r="AA46" s="55">
-        <v>26</v>
+        <v>2595</v>
       </c>
       <c r="AB46" s="57">
-        <v>40</v>
+        <v>4132</v>
       </c>
       <c r="AC46" s="59">
-        <v>151</v>
+        <v>15064</v>
       </c>
       <c r="AD46" s="61">
-        <v>210</v>
+        <v>20927</v>
       </c>
       <c r="AE46" s="63">
-        <v>-59</v>
+        <v>-5863</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6671,16 +6671,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>32</v>
+        <v>3175</v>
       </c>
       <c r="AJ46" s="73">
-        <v>41</v>
+        <v>4271</v>
       </c>
       <c r="AK46" s="75">
-        <v>-9</v>
+        <v>-1096</v>
       </c>
       <c r="AL46" s="77">
-        <v>1580</v>
+        <v>157841</v>
       </c>
     </row>
     <row r="47">
@@ -6688,94 +6688,94 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>167</v>
+        <v>14468</v>
       </c>
       <c r="C47" s="7">
-        <v>129</v>
+        <v>11151</v>
       </c>
       <c r="D47" s="9">
-        <v>38</v>
+        <v>3317</v>
       </c>
       <c r="E47" s="11">
-        <v>788</v>
+        <v>68555</v>
       </c>
       <c r="F47" s="13">
-        <v>1040</v>
+        <v>90515</v>
       </c>
       <c r="G47" s="15">
-        <v>-252</v>
+        <v>-21960</v>
       </c>
       <c r="H47" s="17">
-        <v>375</v>
+        <v>32568</v>
       </c>
       <c r="I47" s="19">
-        <v>174</v>
+        <v>15011</v>
       </c>
       <c r="J47" s="21">
-        <v>201</v>
+        <v>17557</v>
       </c>
       <c r="K47" s="23">
-        <v>22</v>
+        <v>1872</v>
       </c>
       <c r="L47" s="25">
-        <v>18</v>
+        <v>1536</v>
       </c>
       <c r="M47" s="27">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="N47" s="29">
-        <v>17</v>
+        <v>1438</v>
       </c>
       <c r="O47" s="31">
-        <v>11</v>
+        <v>910</v>
       </c>
       <c r="P47" s="33">
-        <v>6</v>
+        <v>528</v>
       </c>
       <c r="Q47" s="35">
-        <v>70</v>
+        <v>6081</v>
       </c>
       <c r="R47" s="37">
-        <v>39</v>
+        <v>3337</v>
       </c>
       <c r="S47" s="39">
-        <v>31</v>
+        <v>2744</v>
       </c>
       <c r="T47" s="41">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="U47" s="43">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="V47" s="45">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="W47" s="47">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="X47" s="49">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="Y47" s="51">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="Z47" s="53">
-        <v>47</v>
+        <v>4089</v>
       </c>
       <c r="AA47" s="55">
-        <v>29</v>
+        <v>2498</v>
       </c>
       <c r="AB47" s="57">
-        <v>18</v>
+        <v>1591</v>
       </c>
       <c r="AC47" s="59">
-        <v>215</v>
+        <v>18693</v>
       </c>
       <c r="AD47" s="61">
-        <v>75</v>
+        <v>6542</v>
       </c>
       <c r="AE47" s="63">
-        <v>140</v>
+        <v>12151</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6787,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>37</v>
+        <v>3193</v>
       </c>
       <c r="AJ47" s="73">
-        <v>24</v>
+        <v>2107</v>
       </c>
       <c r="AK47" s="75">
-        <v>13</v>
+        <v>1086</v>
       </c>
       <c r="AL47" s="77">
-        <v>1368</v>
+        <v>118784</v>
       </c>
     </row>
     <row r="48">
@@ -6804,94 +6804,94 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
-        <v>238</v>
+        <v>20758</v>
       </c>
       <c r="C48" s="7">
-        <v>430</v>
+        <v>36692</v>
       </c>
       <c r="D48" s="9">
-        <v>-193</v>
+        <v>-15934</v>
       </c>
       <c r="E48" s="11">
-        <v>1198</v>
+        <v>105047</v>
       </c>
       <c r="F48" s="13">
-        <v>1458</v>
+        <v>128538</v>
       </c>
       <c r="G48" s="15">
-        <v>-260</v>
+        <v>-23491</v>
       </c>
       <c r="H48" s="17">
-        <v>717</v>
+        <v>62567</v>
       </c>
       <c r="I48" s="19">
-        <v>288</v>
+        <v>25372</v>
       </c>
       <c r="J48" s="21">
-        <v>429</v>
+        <v>37195</v>
       </c>
       <c r="K48" s="23">
-        <v>63</v>
+        <v>5417</v>
       </c>
       <c r="L48" s="25">
-        <v>48</v>
+        <v>4189</v>
       </c>
       <c r="M48" s="27">
-        <v>15</v>
+        <v>1228</v>
       </c>
       <c r="N48" s="29">
-        <v>32</v>
+        <v>2820</v>
       </c>
       <c r="O48" s="31">
-        <v>13</v>
+        <v>1135</v>
       </c>
       <c r="P48" s="33">
-        <v>19</v>
+        <v>1685</v>
       </c>
       <c r="Q48" s="35">
-        <v>204</v>
+        <v>18110</v>
       </c>
       <c r="R48" s="37">
-        <v>71</v>
+        <v>6266</v>
       </c>
       <c r="S48" s="39">
-        <v>133</v>
+        <v>11844</v>
       </c>
       <c r="T48" s="41">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="U48" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" s="45">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="W48" s="47">
-        <v>12</v>
+        <v>1061</v>
       </c>
       <c r="X48" s="49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y48" s="51">
-        <v>12</v>
+        <v>1040</v>
       </c>
       <c r="Z48" s="53">
-        <v>170</v>
+        <v>14827</v>
       </c>
       <c r="AA48" s="55">
-        <v>19</v>
+        <v>1685</v>
       </c>
       <c r="AB48" s="57">
-        <v>151</v>
+        <v>13142</v>
       </c>
       <c r="AC48" s="59">
-        <v>235</v>
+        <v>20277</v>
       </c>
       <c r="AD48" s="61">
-        <v>136</v>
+        <v>12074</v>
       </c>
       <c r="AE48" s="63">
-        <v>99</v>
+        <v>8203</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6903,16 +6903,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>76</v>
+        <v>6761</v>
       </c>
       <c r="AJ48" s="73">
-        <v>51</v>
+        <v>4531</v>
       </c>
       <c r="AK48" s="75">
-        <v>24</v>
+        <v>2230</v>
       </c>
       <c r="AL48" s="77">
-        <v>2228</v>
+        <v>195133</v>
       </c>
     </row>
     <row r="49">
@@ -6920,58 +6920,58 @@
         <v>61</v>
       </c>
       <c r="B49" s="6">
-        <v>97</v>
+        <v>7994</v>
       </c>
       <c r="C49" s="8">
-        <v>154</v>
+        <v>12440</v>
       </c>
       <c r="D49" s="10">
-        <v>-56</v>
+        <v>-4446</v>
       </c>
       <c r="E49" s="12">
-        <v>1145</v>
+        <v>94585</v>
       </c>
       <c r="F49" s="14">
-        <v>1032</v>
+        <v>85854</v>
       </c>
       <c r="G49" s="16">
-        <v>113</v>
+        <v>8732</v>
       </c>
       <c r="H49" s="18">
-        <v>280</v>
+        <v>22685</v>
       </c>
       <c r="I49" s="20">
-        <v>343</v>
+        <v>27540</v>
       </c>
       <c r="J49" s="22">
-        <v>-63</v>
+        <v>-4855</v>
       </c>
       <c r="K49" s="24">
-        <v>17</v>
+        <v>1403</v>
       </c>
       <c r="L49" s="26">
-        <v>53</v>
+        <v>4299</v>
       </c>
       <c r="M49" s="28">
-        <v>-36</v>
+        <v>-2896</v>
       </c>
       <c r="N49" s="30">
-        <v>6</v>
+        <v>523</v>
       </c>
       <c r="O49" s="32">
-        <v>9</v>
+        <v>719</v>
       </c>
       <c r="P49" s="34">
-        <v>-3</v>
+        <v>-196</v>
       </c>
       <c r="Q49" s="36">
-        <v>67</v>
+        <v>5470</v>
       </c>
       <c r="R49" s="38">
-        <v>77</v>
+        <v>6030</v>
       </c>
       <c r="S49" s="40">
-        <v>-10</v>
+        <v>-560</v>
       </c>
       <c r="T49" s="42">
         <v>0</v>
@@ -6983,31 +6983,31 @@
         <v>0</v>
       </c>
       <c r="W49" s="48">
-        <v>8</v>
+        <v>630</v>
       </c>
       <c r="X49" s="50">
-        <v>7</v>
+        <v>610</v>
       </c>
       <c r="Y49" s="52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z49" s="54">
-        <v>38</v>
+        <v>3108</v>
       </c>
       <c r="AA49" s="56">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="AB49" s="58">
-        <v>36</v>
+        <v>2899</v>
       </c>
       <c r="AC49" s="60">
-        <v>144</v>
+        <v>11551</v>
       </c>
       <c r="AD49" s="62">
-        <v>195</v>
+        <v>15673</v>
       </c>
       <c r="AE49" s="64">
-        <v>-50</v>
+        <v>-4122</v>
       </c>
       <c r="AF49" s="66">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AI49" s="72">
-        <v>20</v>
+        <v>1632</v>
       </c>
       <c r="AJ49" s="74">
-        <v>13</v>
+        <v>1063</v>
       </c>
       <c r="AK49" s="76">
-        <v>7</v>
+        <v>569</v>
       </c>
       <c r="AL49" s="78">
-        <v>1542</v>
+        <v>126897</v>
       </c>
     </row>
   </sheetData>
